--- a/uml/cloudformation/list.xlsx
+++ b/uml/cloudformation/list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaw Min Htoon\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A00D113-81E8-4C60-A770-344902419E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ECF8AA-904F-44A8-95F5-096F53454AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cloudformation一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="利用予定service一覧" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="674">
   <si>
     <t>Resources</t>
     <phoneticPr fontId="1"/>
@@ -320,6 +321,1780 @@
   </si>
   <si>
     <t>AWS::RDS::OptionGroup</t>
+  </si>
+  <si>
+    <t>AWS::EC2::CapacityReservation</t>
+  </si>
+  <si>
+    <t>AWS::EC2::CapacityReservationFleet</t>
+  </si>
+  <si>
+    <t>AWS::EC2::CarrierGateway</t>
+  </si>
+  <si>
+    <t>AWS::EC2::ClientVpnAuthorizationRule</t>
+  </si>
+  <si>
+    <t>AWS::EC2::ClientVpnEndpoint</t>
+  </si>
+  <si>
+    <t>AWS::EC2::ClientVpnRoute</t>
+  </si>
+  <si>
+    <t>AWS::EC2::ClientVpnTargetNetworkAssociation</t>
+  </si>
+  <si>
+    <t>AWS::EC2::CustomerGateway</t>
+  </si>
+  <si>
+    <t>AWS::EC2::DHCPOptions</t>
+  </si>
+  <si>
+    <t>AWS::EC2::EC2Fleet</t>
+  </si>
+  <si>
+    <t>AWS::EC2::EgressOnlyInternetGateway</t>
+  </si>
+  <si>
+    <t>AWS::EC2::EIP</t>
+  </si>
+  <si>
+    <t>AWS::EC2::EIPAssociation</t>
+  </si>
+  <si>
+    <t>AWS::EC2::EnclaveCertificateIamRoleAssociation</t>
+  </si>
+  <si>
+    <t>AWS::EC2::FlowLog</t>
+  </si>
+  <si>
+    <t>AWS::EC2::GatewayRouteTableAssociation</t>
+  </si>
+  <si>
+    <t>AWS::EC2::Host</t>
+  </si>
+  <si>
+    <t>AWS::EC2::Instance</t>
+  </si>
+  <si>
+    <t>AWS::EC2::InstanceConnectEndpoint</t>
+  </si>
+  <si>
+    <t>AWS::EC2::InternetGateway</t>
+  </si>
+  <si>
+    <t>AWS::EC2::IPAM</t>
+  </si>
+  <si>
+    <t>AWS::EC2::IPAMAllocation</t>
+  </si>
+  <si>
+    <t>AWS::EC2::IPAMPool</t>
+  </si>
+  <si>
+    <t>AWS::EC2::IPAMPoolCidr</t>
+  </si>
+  <si>
+    <t>AWS::EC2::IPAMResourceDiscovery</t>
+  </si>
+  <si>
+    <t>AWS::EC2::IPAMResourceDiscoveryAssociation</t>
+  </si>
+  <si>
+    <t>AWS::EC2::IPAMScope</t>
+  </si>
+  <si>
+    <t>AWS::EC2::KeyPair</t>
+  </si>
+  <si>
+    <t>AWS::EC2::LaunchTemplate</t>
+  </si>
+  <si>
+    <t>AWS::EC2::LocalGatewayRoute</t>
+  </si>
+  <si>
+    <t>AWS::EC2::LocalGatewayRouteTable</t>
+  </si>
+  <si>
+    <t>AWS::EC2::LocalGatewayRouteTableVirtualInterfaceGroupAssociation</t>
+  </si>
+  <si>
+    <t>AWS::EC2::LocalGatewayRouteTableVPCAssociation</t>
+  </si>
+  <si>
+    <t>AWS::EC2::NatGateway</t>
+  </si>
+  <si>
+    <t>AWS::EC2::NetworkAcl</t>
+  </si>
+  <si>
+    <t>AWS::EC2::NetworkAclEntry</t>
+  </si>
+  <si>
+    <t>AWS::EC2::NetworkInsightsAccessScope</t>
+  </si>
+  <si>
+    <t>AWS::EC2::NetworkInsightsAccessScopeAnalysis</t>
+  </si>
+  <si>
+    <t>AWS::EC2::NetworkInsightsAnalysis</t>
+  </si>
+  <si>
+    <t>AWS::EC2::NetworkInsightsPath</t>
+  </si>
+  <si>
+    <t>AWS::EC2::NetworkInterface</t>
+  </si>
+  <si>
+    <t>AWS::EC2::NetworkInterfaceAttachment</t>
+  </si>
+  <si>
+    <t>AWS::EC2::NetworkInterfacePermission</t>
+  </si>
+  <si>
+    <t>AWS::EC2::NetworkPerformanceMetricSubscription</t>
+  </si>
+  <si>
+    <t>AWS::EC2::PlacementGroup</t>
+  </si>
+  <si>
+    <t>AWS::EC2::PrefixList</t>
+  </si>
+  <si>
+    <t>AWS::EC2::Route</t>
+  </si>
+  <si>
+    <t>AWS::EC2::RouteTable</t>
+  </si>
+  <si>
+    <t>AWS::EC2::SecurityGroup</t>
+  </si>
+  <si>
+    <t>AWS::EC2::SecurityGroupEgress</t>
+  </si>
+  <si>
+    <t>AWS::EC2::SecurityGroupIngress</t>
+  </si>
+  <si>
+    <t>AWS::EC2::SpotFleet</t>
+  </si>
+  <si>
+    <t>AWS::EC2::Subnet</t>
+  </si>
+  <si>
+    <t>AWS::EC2::SubnetCidrBlock</t>
+  </si>
+  <si>
+    <t>AWS::EC2::SubnetNetworkAclAssociation</t>
+  </si>
+  <si>
+    <t>AWS::EC2::SubnetRouteTableAssociation</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TrafficMirrorFilter</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TrafficMirrorFilterRule</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TrafficMirrorSession</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TrafficMirrorTarget</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TransitGateway</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TransitGatewayAttachment</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TransitGatewayConnect</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TransitGatewayMulticastDomain</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TransitGatewayMulticastDomainAssociation</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TransitGatewayMulticastGroupMember</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TransitGatewayMulticastGroupSource</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TransitGatewayPeeringAttachment</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TransitGatewayRoute</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TransitGatewayRouteTable</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TransitGatewayRouteTableAssociation</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TransitGatewayRouteTablePropagation</t>
+  </si>
+  <si>
+    <t>AWS::EC2::TransitGatewayVpcAttachment</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VerifiedAccessEndpoint</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VerifiedAccessGroup</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VerifiedAccessInstance</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VerifiedAccessTrustProvider</t>
+  </si>
+  <si>
+    <t>AWS::EC2::Volume</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VolumeAttachment</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VPC</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VPCCidrBlock</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VPCDHCPOptionsAssociation</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VPCEndpoint</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VPCEndpointConnectionNotification</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VPCEndpointService</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VPCEndpointServicePermissions</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VPCGatewayAttachment</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VPCPeeringConnection</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VPNConnection</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VPNConnectionRoute</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VPNGateway</t>
+  </si>
+  <si>
+    <t>AWS::EC2::VPNGatewayRoutePropagation</t>
+  </si>
+  <si>
+    <t>AWS::CloudFront::Distribution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::CloudFront::OriginAccessControl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新可能</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新不可</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンフカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::ApiGateway::VpcLink</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::ApiGateway::ApiKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::ApiGateway::UsagePlan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::ApiGateway::UsagePlanKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::EC2::SecurityGroup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::RDS::DBSubnetGroup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::CloudWatch::Alarm</t>
+  </si>
+  <si>
+    <t>AWS::CloudWatch::AnomalyDetector</t>
+  </si>
+  <si>
+    <t>AWS::CloudWatch::CompositeAlarm</t>
+  </si>
+  <si>
+    <t>AWS::CloudWatch::Dashboard</t>
+  </si>
+  <si>
+    <t>AWS::CloudWatch::InsightRule</t>
+  </si>
+  <si>
+    <t>AWS::CloudWatch::MetricStream</t>
+  </si>
+  <si>
+    <t>AWS::Logs::AccountPolicy</t>
+  </si>
+  <si>
+    <t>AWS::Logs::Destination</t>
+  </si>
+  <si>
+    <t>AWS::Logs::LogGroup</t>
+  </si>
+  <si>
+    <t>AWS::Logs::LogStream</t>
+  </si>
+  <si>
+    <t>AWS::Logs::MetricFilter</t>
+  </si>
+  <si>
+    <t>AWS::Logs::QueryDefinition</t>
+  </si>
+  <si>
+    <t>AWS::Logs::ResourcePolicy</t>
+  </si>
+  <si>
+    <t>AWS::Logs::SubscriptionFilter</t>
+  </si>
+  <si>
+    <t>AWS::CodeArtifact::Domain</t>
+  </si>
+  <si>
+    <t>AWS::CodeArtifact::Repository</t>
+  </si>
+  <si>
+    <t>AWS::CodeBuild::Project</t>
+  </si>
+  <si>
+    <t>AWS::CodeBuild::ReportGroup</t>
+  </si>
+  <si>
+    <t>AWS::CodeBuild::SourceCredential</t>
+  </si>
+  <si>
+    <t>AWS::CodeCommit::Repository</t>
+  </si>
+  <si>
+    <t>AWS::CodeDeploy::Application</t>
+  </si>
+  <si>
+    <t>AWS::CodeDeploy::DeploymentConfig</t>
+  </si>
+  <si>
+    <t>AWS::CodeDeploy::DeploymentGroup</t>
+  </si>
+  <si>
+    <t>AWS::CodePipeline::CustomActionType</t>
+  </si>
+  <si>
+    <t>AWS::CodePipeline::Pipeline</t>
+  </si>
+  <si>
+    <t>AWS::CodePipeline::Webhook</t>
+  </si>
+  <si>
+    <t>AWS::CodeStar::GitHubRepository</t>
+  </si>
+  <si>
+    <t>AWS::CodeStarConnections::Connection</t>
+  </si>
+  <si>
+    <t>AWS::CodeStarNotifications::NotificationRule</t>
+  </si>
+  <si>
+    <t>AWS::Cognito::IdentityPool</t>
+  </si>
+  <si>
+    <t>AWS::Cognito::IdentityPoolPrincipalTag</t>
+  </si>
+  <si>
+    <t>AWS::Cognito::IdentityPoolRoleAttachment</t>
+  </si>
+  <si>
+    <t>AWS::Cognito::LogDeliveryConfiguration</t>
+  </si>
+  <si>
+    <t>AWS::Cognito::UserPool</t>
+  </si>
+  <si>
+    <t>AWS::Cognito::UserPoolClient</t>
+  </si>
+  <si>
+    <t>AWS::Cognito::UserPoolDomain</t>
+  </si>
+  <si>
+    <t>AWS::Cognito::UserPoolGroup</t>
+  </si>
+  <si>
+    <t>AWS::Cognito::UserPoolIdentityProvider</t>
+  </si>
+  <si>
+    <t>AWS::Cognito::UserPoolResourceServer</t>
+  </si>
+  <si>
+    <t>AWS::Cognito::UserPoolRiskConfigurationAttachment</t>
+  </si>
+  <si>
+    <t>AWS::Cognito::UserPoolUICustomizationAttachment</t>
+  </si>
+  <si>
+    <t>AWS::Cognito::UserPoolUser</t>
+  </si>
+  <si>
+    <t>AWS::Cognito::UserPoolUserToGroupAttachment</t>
+  </si>
+  <si>
+    <t>AWS::Config::AggregationAuthorization</t>
+  </si>
+  <si>
+    <t>AWS::Config::ConfigRule</t>
+  </si>
+  <si>
+    <t>AWS::Config::ConfigurationAggregator</t>
+  </si>
+  <si>
+    <t>AWS::Config::ConfigurationRecorder</t>
+  </si>
+  <si>
+    <t>AWS::Config::ConformancePack</t>
+  </si>
+  <si>
+    <t>AWS::Config::DeliveryChannel</t>
+  </si>
+  <si>
+    <t>AWS::Config::OrganizationConfigRule</t>
+  </si>
+  <si>
+    <t>AWS::Config::OrganizationConformancePack</t>
+  </si>
+  <si>
+    <t>AWS::Config::RemediationConfiguration</t>
+  </si>
+  <si>
+    <t>AWS::Config::StoredQuery</t>
+  </si>
+  <si>
+    <t>AWS::Connect::ApprovedOrigin</t>
+  </si>
+  <si>
+    <t>AWS::Connect::ContactFlow</t>
+  </si>
+  <si>
+    <t>AWS::Connect::ContactFlowModule</t>
+  </si>
+  <si>
+    <t>AWS::Connect::EvaluationForm</t>
+  </si>
+  <si>
+    <t>AWS::Connect::HoursOfOperation</t>
+  </si>
+  <si>
+    <t>AWS::Connect::Instance</t>
+  </si>
+  <si>
+    <t>AWS::Connect::InstanceStorageConfig</t>
+  </si>
+  <si>
+    <t>AWS::Connect::IntegrationAssociation</t>
+  </si>
+  <si>
+    <t>AWS::Connect::PhoneNumber</t>
+  </si>
+  <si>
+    <t>AWS::Connect::Prompt</t>
+  </si>
+  <si>
+    <t>AWS::Connect::Queue</t>
+  </si>
+  <si>
+    <t>AWS::Connect::QuickConnect</t>
+  </si>
+  <si>
+    <t>AWS::Connect::RoutingProfile</t>
+  </si>
+  <si>
+    <t>AWS::Connect::Rule</t>
+  </si>
+  <si>
+    <t>AWS::Connect::SecurityKey</t>
+  </si>
+  <si>
+    <t>AWS::Connect::SecurityProfile</t>
+  </si>
+  <si>
+    <t>AWS::Connect::TaskTemplate</t>
+  </si>
+  <si>
+    <t>AWS::Connect::TrafficDistributionGroup</t>
+  </si>
+  <si>
+    <t>AWS::Connect::User</t>
+  </si>
+  <si>
+    <t>AWS::Connect::UserHierarchyGroup</t>
+  </si>
+  <si>
+    <t>AWS::Connect::View</t>
+  </si>
+  <si>
+    <t>AWS::Connect::ViewVersion</t>
+  </si>
+  <si>
+    <t>AWS::DAX::Cluster</t>
+  </si>
+  <si>
+    <t>AWS::DAX::ParameterGroup</t>
+  </si>
+  <si>
+    <t>AWS::DAX::SubnetGroup</t>
+  </si>
+  <si>
+    <t>AWS::DataSync::Agent</t>
+  </si>
+  <si>
+    <t>AWS::DataSync::LocationAzureBlob</t>
+  </si>
+  <si>
+    <t>AWS::DataSync::LocationEFS</t>
+  </si>
+  <si>
+    <t>AWS::DataSync::LocationFSxLustre</t>
+  </si>
+  <si>
+    <t>AWS::DataSync::LocationFSxONTAP</t>
+  </si>
+  <si>
+    <t>AWS::DataSync::LocationFSxOpenZFS</t>
+  </si>
+  <si>
+    <t>AWS::DataSync::LocationFSxWindows</t>
+  </si>
+  <si>
+    <t>AWS::DataSync::LocationHDFS</t>
+  </si>
+  <si>
+    <t>AWS::DataSync::LocationNFS</t>
+  </si>
+  <si>
+    <t>AWS::DataSync::LocationObjectStorage</t>
+  </si>
+  <si>
+    <t>AWS::DataSync::LocationS3</t>
+  </si>
+  <si>
+    <t>AWS::DataSync::LocationSMB</t>
+  </si>
+  <si>
+    <t>AWS::DataSync::StorageSystem</t>
+  </si>
+  <si>
+    <t>AWS::DataSync::Task</t>
+  </si>
+  <si>
+    <t>AWS::DirectoryService::MicrosoftAD</t>
+  </si>
+  <si>
+    <t>AWS::DirectoryService::SimpleAD</t>
+  </si>
+  <si>
+    <t>AWS::DMS::Certificate</t>
+  </si>
+  <si>
+    <t>AWS::DMS::Endpoint</t>
+  </si>
+  <si>
+    <t>AWS::DMS::EventSubscription</t>
+  </si>
+  <si>
+    <t>AWS::DMS::ReplicationConfig</t>
+  </si>
+  <si>
+    <t>AWS::DMS::ReplicationInstance</t>
+  </si>
+  <si>
+    <t>AWS::DMS::ReplicationSubnetGroup</t>
+  </si>
+  <si>
+    <t>AWS::DMS::ReplicationTask</t>
+  </si>
+  <si>
+    <t>AWS::DynamoDB::GlobalTable</t>
+  </si>
+  <si>
+    <t>AWS::DynamoDB::Table</t>
+  </si>
+  <si>
+    <t>AWS::AutoScaling::AutoScalingGroup</t>
+  </si>
+  <si>
+    <t>AWS::AutoScaling::LaunchConfiguration</t>
+  </si>
+  <si>
+    <t>AWS::AutoScaling::LifecycleHook</t>
+  </si>
+  <si>
+    <t>AWS::AutoScaling::ScalingPolicy</t>
+  </si>
+  <si>
+    <t>AWS::AutoScaling::ScheduledAction</t>
+  </si>
+  <si>
+    <t>AWS::AutoScaling::WarmPool</t>
+  </si>
+  <si>
+    <t>AWS::EFS::AccessPoint</t>
+  </si>
+  <si>
+    <t>AWS::EFS::FileSystem</t>
+  </si>
+  <si>
+    <t>AWS::EFS::MountTarget</t>
+  </si>
+  <si>
+    <t>AWS::EKS::Addon</t>
+  </si>
+  <si>
+    <t>AWS::EKS::Cluster</t>
+  </si>
+  <si>
+    <t>AWS::EKS::FargateProfile</t>
+  </si>
+  <si>
+    <t>AWS::EKS::IdentityProviderConfig</t>
+  </si>
+  <si>
+    <t>AWS::EKS::Nodegroup</t>
+  </si>
+  <si>
+    <t>AWS::ElasticBeanstalk::Application</t>
+  </si>
+  <si>
+    <t>AWS::ElasticBeanstalk::ApplicationVersion</t>
+  </si>
+  <si>
+    <t>AWS::ElasticBeanstalk::ConfigurationTemplate</t>
+  </si>
+  <si>
+    <t>AWS::ElasticBeanstalk::Environment</t>
+  </si>
+  <si>
+    <t>AWS::ElasticLoadBalancing::LoadBalancer</t>
+  </si>
+  <si>
+    <t>AWS::ElasticLoadBalancingV2::Listener</t>
+  </si>
+  <si>
+    <t>AWS::ElasticLoadBalancingV2::ListenerCertificate</t>
+  </si>
+  <si>
+    <t>AWS::ElasticLoadBalancingV2::ListenerRule</t>
+  </si>
+  <si>
+    <t>AWS::ElasticLoadBalancingV2::LoadBalancer</t>
+  </si>
+  <si>
+    <t>AWS::ElasticLoadBalancingV2::TargetGroup</t>
+  </si>
+  <si>
+    <t>AWS::EMR::Cluster</t>
+  </si>
+  <si>
+    <t>AWS::EMR::InstanceFleetConfig</t>
+  </si>
+  <si>
+    <t>AWS::EMR::InstanceGroupConfig</t>
+  </si>
+  <si>
+    <t>AWS::EMR::SecurityConfiguration</t>
+  </si>
+  <si>
+    <t>AWS::EMR::Step</t>
+  </si>
+  <si>
+    <t>AWS::EMR::Studio</t>
+  </si>
+  <si>
+    <t>AWS::EMR::StudioSessionMapping</t>
+  </si>
+  <si>
+    <t>AWS::EMR::WALWorkspace</t>
+  </si>
+  <si>
+    <t>AWS::EMRServerless::Application</t>
+  </si>
+  <si>
+    <t>AWS::EMRContainers::VirtualCluster</t>
+  </si>
+  <si>
+    <t>AWS::ElastiCache::CacheCluster</t>
+  </si>
+  <si>
+    <t>AWS::ElastiCache::GlobalReplicationGroup</t>
+  </si>
+  <si>
+    <t>AWS::ElastiCache::ParameterGroup</t>
+  </si>
+  <si>
+    <t>AWS::ElastiCache::ReplicationGroup</t>
+  </si>
+  <si>
+    <t>AWS::ElastiCache::SecurityGroup</t>
+  </si>
+  <si>
+    <t>AWS::ElastiCache::SecurityGroupIngress</t>
+  </si>
+  <si>
+    <t>AWS::ElastiCache::SubnetGroup</t>
+  </si>
+  <si>
+    <t>AWS::ElastiCache::User</t>
+  </si>
+  <si>
+    <t>AWS::ElastiCache::UserGroup</t>
+  </si>
+  <si>
+    <t>AWS::EntityResolution::IdMappingWorkflow</t>
+  </si>
+  <si>
+    <t>AWS::EntityResolution::MatchingWorkflow</t>
+  </si>
+  <si>
+    <t>AWS::EntityResolution::SchemaMapping</t>
+  </si>
+  <si>
+    <t>AWS::Events::ApiDestination</t>
+  </si>
+  <si>
+    <t>AWS::Events::Archive</t>
+  </si>
+  <si>
+    <t>AWS::Events::Connection</t>
+  </si>
+  <si>
+    <t>AWS::Events::Endpoint</t>
+  </si>
+  <si>
+    <t>AWS::Events::EventBus</t>
+  </si>
+  <si>
+    <t>AWS::Events::EventBusPolicy</t>
+  </si>
+  <si>
+    <t>AWS::Events::Rule</t>
+  </si>
+  <si>
+    <t>AWS::Pipes::Pipe</t>
+  </si>
+  <si>
+    <t>AWS::Scheduler::Schedule</t>
+  </si>
+  <si>
+    <t>AWS::Scheduler::ScheduleGroup</t>
+  </si>
+  <si>
+    <t>AWS::EventSchemas::Discoverer</t>
+  </si>
+  <si>
+    <t>AWS::EventSchemas::Registry</t>
+  </si>
+  <si>
+    <t>AWS::EventSchemas::RegistryPolicy</t>
+  </si>
+  <si>
+    <t>AWS::EventSchemas::Schema</t>
+  </si>
+  <si>
+    <t>AWS::Evidently::Experiment</t>
+  </si>
+  <si>
+    <t>AWS::Evidently::Feature</t>
+  </si>
+  <si>
+    <t>AWS::Evidently::Launch</t>
+  </si>
+  <si>
+    <t>AWS::Evidently::Project</t>
+  </si>
+  <si>
+    <t>AWS::Evidently::Segment</t>
+  </si>
+  <si>
+    <t>AWS::FMS::NotificationChannel</t>
+  </si>
+  <si>
+    <t>AWS::FMS::Policy</t>
+  </si>
+  <si>
+    <t>AWS::FMS::ResourceSet</t>
+  </si>
+  <si>
+    <t>AWS::IdentityStore::Group</t>
+  </si>
+  <si>
+    <t>AWS::IdentityStore::GroupMembership</t>
+  </si>
+  <si>
+    <t>AWS::AccessAnalyzer::Analyzer</t>
+  </si>
+  <si>
+    <t>AWS::ImageBuilder::Component</t>
+  </si>
+  <si>
+    <t>AWS::ImageBuilder::ContainerRecipe</t>
+  </si>
+  <si>
+    <t>AWS::ImageBuilder::DistributionConfiguration</t>
+  </si>
+  <si>
+    <t>AWS::ImageBuilder::Image</t>
+  </si>
+  <si>
+    <t>AWS::ImageBuilder::ImagePipeline</t>
+  </si>
+  <si>
+    <t>AWS::ImageBuilder::ImageRecipe</t>
+  </si>
+  <si>
+    <t>AWS::ImageBuilder::InfrastructureConfiguration</t>
+  </si>
+  <si>
+    <t>AWS::KMS::Alias</t>
+  </si>
+  <si>
+    <t>AWS::KMS::Key</t>
+  </si>
+  <si>
+    <t>AWS::KMS::ReplicaKey</t>
+  </si>
+  <si>
+    <t>AWS::Lambda::Alias</t>
+  </si>
+  <si>
+    <t>AWS::Lambda::CodeSigningConfig</t>
+  </si>
+  <si>
+    <t>AWS::Lambda::EventInvokeConfig</t>
+  </si>
+  <si>
+    <t>AWS::Lambda::EventSourceMapping</t>
+  </si>
+  <si>
+    <t>AWS::Lambda::Function</t>
+  </si>
+  <si>
+    <t>AWS::Lambda::LayerVersion</t>
+  </si>
+  <si>
+    <t>AWS::Lambda::LayerVersionPermission</t>
+  </si>
+  <si>
+    <t>AWS::Lambda::Permission</t>
+  </si>
+  <si>
+    <t>AWS::Lambda::Url</t>
+  </si>
+  <si>
+    <t>AWS::Lambda::Version</t>
+  </si>
+  <si>
+    <t>AWS::Location::GeofenceCollection</t>
+  </si>
+  <si>
+    <t>AWS::Location::Map</t>
+  </si>
+  <si>
+    <t>AWS::Location::PlaceIndex</t>
+  </si>
+  <si>
+    <t>AWS::Location::RouteCalculator</t>
+  </si>
+  <si>
+    <t>AWS::Location::Tracker</t>
+  </si>
+  <si>
+    <t>AWS::Location::TrackerConsumer</t>
+  </si>
+  <si>
+    <t>AWS::MediaConnect::Bridge</t>
+  </si>
+  <si>
+    <t>AWS::MediaConnect::BridgeOutput</t>
+  </si>
+  <si>
+    <t>AWS::MediaConnect::BridgeSource</t>
+  </si>
+  <si>
+    <t>AWS::MediaConnect::Flow</t>
+  </si>
+  <si>
+    <t>AWS::MediaConnect::FlowEntitlement</t>
+  </si>
+  <si>
+    <t>AWS::MediaConnect::FlowOutput</t>
+  </si>
+  <si>
+    <t>AWS::MediaConnect::FlowSource</t>
+  </si>
+  <si>
+    <t>AWS::MediaConnect::FlowVpcInterface</t>
+  </si>
+  <si>
+    <t>AWS::MediaConnect::Gateway</t>
+  </si>
+  <si>
+    <t>AWS::MediaConvert::JobTemplate</t>
+  </si>
+  <si>
+    <t>AWS::MediaConvert::Preset</t>
+  </si>
+  <si>
+    <t>AWS::MediaConvert::Queue</t>
+  </si>
+  <si>
+    <t>AWS::MediaLive::Channel</t>
+  </si>
+  <si>
+    <t>AWS::MediaLive::Input</t>
+  </si>
+  <si>
+    <t>AWS::MediaLive::InputSecurityGroup</t>
+  </si>
+  <si>
+    <t>AWS::MediaLive::Multiplex</t>
+  </si>
+  <si>
+    <t>AWS::MediaLive::Multiplexprogram</t>
+  </si>
+  <si>
+    <t>AWS::MediaPackage::Asset</t>
+  </si>
+  <si>
+    <t>AWS::MediaPackage::Channel</t>
+  </si>
+  <si>
+    <t>AWS::MediaPackage::OriginEndpoint</t>
+  </si>
+  <si>
+    <t>AWS::MediaPackage::PackagingConfiguration</t>
+  </si>
+  <si>
+    <t>AWS::MediaPackage::PackagingGroup</t>
+  </si>
+  <si>
+    <t>AWS::MediaPackageV2::Channel</t>
+  </si>
+  <si>
+    <t>AWS::MediaPackageV2::ChannelGroup</t>
+  </si>
+  <si>
+    <t>AWS::MediaPackageV2::ChannelPolicy</t>
+  </si>
+  <si>
+    <t>AWS::MediaPackageV2::OriginEndpoint</t>
+  </si>
+  <si>
+    <t>AWS::MediaPackageV2::OriginEndpointPolicy</t>
+  </si>
+  <si>
+    <t>AWS::MediaTailor::Channel</t>
+  </si>
+  <si>
+    <t>AWS::MediaTailor::ChannelPolicy</t>
+  </si>
+  <si>
+    <t>AWS::MediaTailor::LiveSource</t>
+  </si>
+  <si>
+    <t>AWS::MediaTailor::PlaybackConfiguration</t>
+  </si>
+  <si>
+    <t>AWS::MediaTailor::SourceLocation</t>
+  </si>
+  <si>
+    <t>AWS::MediaTailor::VodSource</t>
+  </si>
+  <si>
+    <t>AWS::MediaStore::Container</t>
+  </si>
+  <si>
+    <t>AWS::AmazonMQ::Broker</t>
+  </si>
+  <si>
+    <t>AWS::AmazonMQ::Configuration</t>
+  </si>
+  <si>
+    <t>AWS::AmazonMQ::ConfigurationAssociation</t>
+  </si>
+  <si>
+    <t>AWS::MemoryDB::ACL</t>
+  </si>
+  <si>
+    <t>AWS::MemoryDB::Cluster</t>
+  </si>
+  <si>
+    <t>AWS::MemoryDB::ParameterGroup</t>
+  </si>
+  <si>
+    <t>AWS::MemoryDB::SubnetGroup</t>
+  </si>
+  <si>
+    <t>AWS::MemoryDB::User</t>
+  </si>
+  <si>
+    <t>AWS::MSK::BatchScramSecret</t>
+  </si>
+  <si>
+    <t>AWS::MSK::Cluster</t>
+  </si>
+  <si>
+    <t>AWS::MSK::ClusterPolicy</t>
+  </si>
+  <si>
+    <t>AWS::MSK::Configuration</t>
+  </si>
+  <si>
+    <t>AWS::MSK::Replicator</t>
+  </si>
+  <si>
+    <t>AWS::MSK::ServerlessCluster</t>
+  </si>
+  <si>
+    <t>AWS::MSK::VpcConnection</t>
+  </si>
+  <si>
+    <t>AWS::NetworkFirewall::Firewall</t>
+  </si>
+  <si>
+    <t>AWS::NetworkFirewall::FirewallPolicy</t>
+  </si>
+  <si>
+    <t>AWS::NetworkFirewall::LoggingConfiguration</t>
+  </si>
+  <si>
+    <t>AWS::NetworkFirewall::RuleGroup</t>
+  </si>
+  <si>
+    <t>AWS::NetworkManager::ConnectAttachment</t>
+  </si>
+  <si>
+    <t>AWS::NetworkManager::ConnectPeer</t>
+  </si>
+  <si>
+    <t>AWS::NetworkManager::CoreNetwork</t>
+  </si>
+  <si>
+    <t>AWS::NetworkManager::CustomerGatewayAssociation</t>
+  </si>
+  <si>
+    <t>AWS::NetworkManager::Device</t>
+  </si>
+  <si>
+    <t>AWS::NetworkManager::GlobalNetwork</t>
+  </si>
+  <si>
+    <t>AWS::NetworkManager::Link</t>
+  </si>
+  <si>
+    <t>AWS::NetworkManager::LinkAssociation</t>
+  </si>
+  <si>
+    <t>AWS::NetworkManager::Site</t>
+  </si>
+  <si>
+    <t>AWS::NetworkManager::SiteToSiteVpnAttachment</t>
+  </si>
+  <si>
+    <t>AWS::NetworkManager::TransitGatewayPeering</t>
+  </si>
+  <si>
+    <t>AWS::NetworkManager::TransitGatewayRegistration</t>
+  </si>
+  <si>
+    <t>AWS::NetworkManager::TransitGatewayRouteTableAttachment</t>
+  </si>
+  <si>
+    <t>AWS::NetworkManager::VpcAttachment</t>
+  </si>
+  <si>
+    <t>AWS::RefactorSpaces::Application</t>
+  </si>
+  <si>
+    <t>AWS::RefactorSpaces::Environment</t>
+  </si>
+  <si>
+    <t>AWS::RefactorSpaces::Route</t>
+  </si>
+  <si>
+    <t>AWS::RefactorSpaces::Service</t>
+  </si>
+  <si>
+    <t>AWS::RolesAnywhere::CRL</t>
+  </si>
+  <si>
+    <t>AWS::RolesAnywhere::Profile</t>
+  </si>
+  <si>
+    <t>AWS::RolesAnywhere::TrustAnchor</t>
+  </si>
+  <si>
+    <t>AWS::Route53::CidrCollection</t>
+  </si>
+  <si>
+    <t>AWS::Route53::DNSSEC</t>
+  </si>
+  <si>
+    <t>AWS::Route53::HealthCheck</t>
+  </si>
+  <si>
+    <t>AWS::Route53::HostedZone</t>
+  </si>
+  <si>
+    <t>AWS::Route53::KeySigningKey</t>
+  </si>
+  <si>
+    <t>AWS::Route53::RecordSet</t>
+  </si>
+  <si>
+    <t>AWS::Route53::RecordSetGroup</t>
+  </si>
+  <si>
+    <t>AWS::Route53RecoveryControl::Cluster</t>
+  </si>
+  <si>
+    <t>AWS::Route53RecoveryControl::ControlPanel</t>
+  </si>
+  <si>
+    <t>AWS::Route53RecoveryControl::RoutingControl</t>
+  </si>
+  <si>
+    <t>AWS::Route53RecoveryControl::SafetyRule</t>
+  </si>
+  <si>
+    <t>AWS::Route53RecoveryReadiness::Cell</t>
+  </si>
+  <si>
+    <t>AWS::Route53RecoveryReadiness::ReadinessCheck</t>
+  </si>
+  <si>
+    <t>AWS::Route53RecoveryReadiness::RecoveryGroup</t>
+  </si>
+  <si>
+    <t>AWS::Route53RecoveryReadiness::ResourceSet</t>
+  </si>
+  <si>
+    <t>AWS::Route53Resolver::FirewallDomainList</t>
+  </si>
+  <si>
+    <t>AWS::Route53Resolver::FirewallRuleGroup</t>
+  </si>
+  <si>
+    <t>AWS::Route53Resolver::FirewallRuleGroupAssociation</t>
+  </si>
+  <si>
+    <t>AWS::Route53Resolver::OutpostResolver</t>
+  </si>
+  <si>
+    <t>AWS::Route53Resolver::ResolverConfig</t>
+  </si>
+  <si>
+    <t>AWS::Route53Resolver::ResolverDNSSECConfig</t>
+  </si>
+  <si>
+    <t>AWS::Route53Resolver::ResolverEndpoint</t>
+  </si>
+  <si>
+    <t>AWS::Route53Resolver::ResolverQueryLoggingConfig</t>
+  </si>
+  <si>
+    <t>AWS::Route53Resolver::ResolverQueryLoggingConfigAssociation</t>
+  </si>
+  <si>
+    <t>AWS::Route53Resolver::ResolverRule</t>
+  </si>
+  <si>
+    <t>AWS::Route53Resolver::ResolverRuleAssociation</t>
+  </si>
+  <si>
+    <t>AWS::S3::AccessPoint</t>
+  </si>
+  <si>
+    <t>AWS::S3::Bucket</t>
+  </si>
+  <si>
+    <t>AWS::S3::BucketPolicy</t>
+  </si>
+  <si>
+    <t>AWS::S3::MultiRegionAccessPoint</t>
+  </si>
+  <si>
+    <t>AWS::S3::MultiRegionAccessPointPolicy</t>
+  </si>
+  <si>
+    <t>AWS::S3::StorageLens</t>
+  </si>
+  <si>
+    <t>AWS::S3ObjectLambda::AccessPoint</t>
+  </si>
+  <si>
+    <t>AWS::S3ObjectLambda::AccessPointPolicy</t>
+  </si>
+  <si>
+    <t>AWS::S3Outposts::AccessPoint</t>
+  </si>
+  <si>
+    <t>AWS::S3Outposts::Bucket</t>
+  </si>
+  <si>
+    <t>AWS::S3Outposts::BucketPolicy</t>
+  </si>
+  <si>
+    <t>AWS::S3Outposts::Endpoint</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::App</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::AppImageConfig</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::CodeRepository</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::DataQualityJobDefinition</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::Device</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::DeviceFleet</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::Domain</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::Endpoint</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::EndpointConfig</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::FeatureGroup</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::Image</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::ImageVersion</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::InferenceExperiment</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::Model</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::ModelBiasJobDefinition</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::ModelCard</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::ModelExplainabilityJobDefinition</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::ModelPackage</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::ModelPackageGroup</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::ModelQualityJobDefinition</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::MonitoringSchedule</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::NotebookInstance</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::NotebookInstanceLifecycleConfig</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::Pipeline</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::Project</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::Space</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::UserProfile</t>
+  </si>
+  <si>
+    <t>AWS::SageMaker::Workteam</t>
+  </si>
+  <si>
+    <t>AWS::SecretsManager::ResourcePolicy</t>
+  </si>
+  <si>
+    <t>AWS::SecretsManager::RotationSchedule</t>
+  </si>
+  <si>
+    <t>AWS::SecretsManager::Secret</t>
+  </si>
+  <si>
+    <t>AWS::SecretsManager::SecretTargetAttachment</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalog::AcceptedPortfolioShare</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalog::CloudFormationProduct</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalog::CloudFormationProvisionedProduct</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalog::LaunchNotificationConstraint</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalog::LaunchRoleConstraint</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalog::LaunchTemplateConstraint</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalog::Portfolio</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalog::PortfolioPrincipalAssociation</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalog::PortfolioProductAssociation</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalog::PortfolioShare</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalog::ResourceUpdateConstraint</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalog::ServiceAction</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalog::ServiceActionAssociation</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalog::StackSetConstraint</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalog::TagOption</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalog::TagOptionAssociation</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalogAppRegistry::Application</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalogAppRegistry::AttributeGroup</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalogAppRegistry::AttributeGroupAssociation</t>
+  </si>
+  <si>
+    <t>AWS::ServiceCatalogAppRegistry::ResourceAssociation</t>
+  </si>
+  <si>
+    <t>AWS::SecurityHub::AutomationRule</t>
+  </si>
+  <si>
+    <t>AWS::SecurityHub::Hub</t>
+  </si>
+  <si>
+    <t>AWS::SecurityHub::Standard</t>
+  </si>
+  <si>
+    <t>AWS::SES::ConfigurationSet</t>
+  </si>
+  <si>
+    <t>AWS::SES::ConfigurationSetEventDestination</t>
+  </si>
+  <si>
+    <t>AWS::SES::ContactList</t>
+  </si>
+  <si>
+    <t>AWS::SES::DedicatedIpPool</t>
+  </si>
+  <si>
+    <t>AWS::SES::EmailIdentity</t>
+  </si>
+  <si>
+    <t>AWS::SES::ReceiptFilter</t>
+  </si>
+  <si>
+    <t>AWS::SES::ReceiptRule</t>
+  </si>
+  <si>
+    <t>AWS::SES::ReceiptRuleSet</t>
+  </si>
+  <si>
+    <t>AWS::SES::Template</t>
+  </si>
+  <si>
+    <t>AWS::SES::VdmAttributes</t>
+  </si>
+  <si>
+    <t>AWS::SDB::Domain</t>
+  </si>
+  <si>
+    <t>AWS::StepFunctions::Activity</t>
+  </si>
+  <si>
+    <t>AWS::StepFunctions::StateMachine</t>
+  </si>
+  <si>
+    <t>AWS::StepFunctions::StateMachineAlias</t>
+  </si>
+  <si>
+    <t>AWS::StepFunctions::StateMachineVersion</t>
+  </si>
+  <si>
+    <t>AWS::SSM::Association</t>
+  </si>
+  <si>
+    <t>AWS::SSM::Document</t>
+  </si>
+  <si>
+    <t>AWS::SSM::MaintenanceWindow</t>
+  </si>
+  <si>
+    <t>AWS::SSM::MaintenanceWindowTarget</t>
+  </si>
+  <si>
+    <t>AWS::SSM::MaintenanceWindowTask</t>
+  </si>
+  <si>
+    <t>AWS::SSM::Parameter</t>
+  </si>
+  <si>
+    <t>AWS::SSM::PatchBaseline</t>
+  </si>
+  <si>
+    <t>AWS::SSM::ResourceDataSync</t>
+  </si>
+  <si>
+    <t>AWS::SSM::ResourcePolicy</t>
+  </si>
+  <si>
+    <t>AWS::SupportApp::AccountAlias</t>
+  </si>
+  <si>
+    <t>AWS::SupportApp::SlackChannelConfiguration</t>
+  </si>
+  <si>
+    <t>AWS::SupportApp::SlackWorkspaceConfiguration</t>
+  </si>
+  <si>
+    <t>AWS::SystemsManagerSAP::Application</t>
+  </si>
+  <si>
+    <t>AWS::Timestream::Database</t>
+  </si>
+  <si>
+    <t>AWS::Timestream::ScheduledQuery</t>
+  </si>
+  <si>
+    <t>AWS::Timestream::Table</t>
+  </si>
+  <si>
+    <t>AWS::Transfer::Agreement</t>
+  </si>
+  <si>
+    <t>AWS::Transfer::Certificate</t>
+  </si>
+  <si>
+    <t>AWS::Transfer::Connector</t>
+  </si>
+  <si>
+    <t>AWS::Transfer::Profile</t>
+  </si>
+  <si>
+    <t>AWS::Transfer::Server</t>
+  </si>
+  <si>
+    <t>AWS::Transfer::User</t>
+  </si>
+  <si>
+    <t>AWS::Transfer::Workflow</t>
+  </si>
+  <si>
+    <t>AWS::VerifiedPermissions::IdentitySource</t>
+  </si>
+  <si>
+    <t>AWS::VerifiedPermissions::Policy</t>
+  </si>
+  <si>
+    <t>AWS::VerifiedPermissions::PolicyStore</t>
+  </si>
+  <si>
+    <t>AWS::VerifiedPermissions::PolicyTemplate</t>
+  </si>
+  <si>
+    <t>AWS::VoiceID::Domain</t>
+  </si>
+  <si>
+    <t>AWS::VpcLattice::AccessLogSubscription</t>
+  </si>
+  <si>
+    <t>AWS::VpcLattice::AuthPolicy</t>
+  </si>
+  <si>
+    <t>AWS::VpcLattice::Listener</t>
+  </si>
+  <si>
+    <t>AWS::VpcLattice::ResourcePolicy</t>
+  </si>
+  <si>
+    <t>AWS::VpcLattice::Rule</t>
+  </si>
+  <si>
+    <t>AWS::VpcLattice::Service</t>
+  </si>
+  <si>
+    <t>AWS::VpcLattice::ServiceNetwork</t>
+  </si>
+  <si>
+    <t>AWS::VpcLattice::ServiceNetworkServiceAssociation</t>
+  </si>
+  <si>
+    <t>AWS::VpcLattice::ServiceNetworkVpcAssociation</t>
+  </si>
+  <si>
+    <t>AWS::VpcLattice::TargetGroup</t>
+  </si>
+  <si>
+    <t>AWS::WAFRegional::ByteMatchSet</t>
+  </si>
+  <si>
+    <t>AWS::WAFRegional::GeoMatchSet</t>
+  </si>
+  <si>
+    <t>AWS::WAFRegional::IPSet</t>
+  </si>
+  <si>
+    <t>AWS::WAFRegional::RateBasedRule</t>
+  </si>
+  <si>
+    <t>AWS::WAFRegional::RegexPatternSet</t>
+  </si>
+  <si>
+    <t>AWS::WAFRegional::Rule</t>
+  </si>
+  <si>
+    <t>AWS::WAFRegional::SizeConstraintSet</t>
+  </si>
+  <si>
+    <t>AWS::WAFRegional::SqlInjectionMatchSet</t>
+  </si>
+  <si>
+    <t>AWS::WAFRegional::WebACL</t>
+  </si>
+  <si>
+    <t>AWS::WAFRegional::WebACLAssociation</t>
+  </si>
+  <si>
+    <t>AWS::WAFRegional::XssMatchSet</t>
+  </si>
+  <si>
+    <t>AWS::WAFv2::IPSet</t>
+  </si>
+  <si>
+    <t>AWS::WAFv2::LoggingConfiguration</t>
+  </si>
+  <si>
+    <t>AWS::WAFv2::RegexPatternSet</t>
+  </si>
+  <si>
+    <t>AWS::WAFv2::RuleGroup</t>
+  </si>
+  <si>
+    <t>AWS::WAFv2::WebACL</t>
+  </si>
+  <si>
+    <t>AWS::WAFv2::WebACLAssociation</t>
+  </si>
+  <si>
+    <t>AWS::Wisdom::Assistant</t>
+  </si>
+  <si>
+    <t>AWS::Wisdom::AssistantAssociation</t>
+  </si>
+  <si>
+    <t>AWS::Wisdom::KnowledgeBase</t>
+  </si>
+  <si>
+    <t>AWS::WorkSpaces::ConnectionAlias</t>
+  </si>
+  <si>
+    <t>AWS::WorkSpaces::Workspace</t>
+  </si>
+  <si>
+    <t>AWS::WorkSpacesWeb::BrowserSettings</t>
+  </si>
+  <si>
+    <t>AWS::WorkSpacesWeb::IdentityProvider</t>
+  </si>
+  <si>
+    <t>AWS::WorkSpacesWeb::IpAccessSettings</t>
+  </si>
+  <si>
+    <t>AWS::WorkSpacesWeb::NetworkSettings</t>
+  </si>
+  <si>
+    <t>AWS::WorkSpacesWeb::Portal</t>
+  </si>
+  <si>
+    <t>AWS::WorkSpacesWeb::TrustStore</t>
+  </si>
+  <si>
+    <t>AWS::WorkSpacesWeb::UserAccessLoggingSettings</t>
+  </si>
+  <si>
+    <t>AWS::WorkSpacesWeb::UserSettings</t>
+  </si>
+  <si>
+    <t>AWS::XRay::Group</t>
+  </si>
+  <si>
+    <t>AWS::XRay::ResourcePolicy</t>
+  </si>
+  <si>
+    <t>AWS::XRay::SamplingRule</t>
+  </si>
+  <si>
+    <t>AWS::CloudFormation::Stack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::ECS::Service</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::ECS::TaskDefinition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::EC2::VPC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::EC2::FlowLog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::IAM::Role</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::Logs::LogGroup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::EC2::Subnet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::EC2::InternetGateway</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::EC2::VPCGatewayAttachment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::EC2::NatGateway</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::EC2::EIP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::EC2::RouteTable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::EC2::Route</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::EC2::SubnetRouteTableAssociation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS::ECS::Cluster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -371,17 +2146,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -392,6 +2183,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C03A2044-D508-4345-BC59-864A46760C09}" name="テーブル3" displayName="テーブル3" ref="B2:G38" totalsRowShown="0">
+  <autoFilter ref="B2:G38" xr:uid="{C03A2044-D508-4345-BC59-864A46760C09}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1C726F27-CCB9-4B18-9CCE-E67D127568F6}" name="＃"/>
+    <tableColumn id="2" xr3:uid="{1B860F3B-9EA9-4E6B-A319-D87F756086C2}" name="Name"/>
+    <tableColumn id="7" xr3:uid="{E969A249-F58D-4654-830E-BCDE239D6647}" name="更新不可" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{97E824A9-3FAF-40B6-AECD-6F1062491ED3}" name="更新可能" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{9765A085-1612-4DE5-820A-61276D166B77}" name="不明" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{7BD8E49D-E50E-4B21-8972-3772FF26A9A1}" name="備考" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -657,15 +2463,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B107"/>
+  <dimension ref="B2:B782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="2" max="2" width="75.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
@@ -1156,6 +2960,2976 @@
     <row r="107" spans="2:2">
       <c r="B107" s="1" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2">
+      <c r="B371" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2">
+      <c r="B374" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2">
+      <c r="B383" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2">
+      <c r="B384" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2">
+      <c r="B386" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2">
+      <c r="B387" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2">
+      <c r="B388" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2">
+      <c r="B390" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2">
+      <c r="B391" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2">
+      <c r="B392" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2">
+      <c r="B393" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2">
+      <c r="B394" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2">
+      <c r="B395" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2">
+      <c r="B396" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2">
+      <c r="B398" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2">
+      <c r="B399" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2">
+      <c r="B400" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2">
+      <c r="B401" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2">
+      <c r="B402" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2">
+      <c r="B403" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2">
+      <c r="B404" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2">
+      <c r="B406" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2">
+      <c r="B407" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2">
+      <c r="B408" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2">
+      <c r="B409" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2">
+      <c r="B410" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2">
+      <c r="B412" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2">
+      <c r="B413" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2">
+      <c r="B414" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2">
+      <c r="B416" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2">
+      <c r="B417" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2">
+      <c r="B418" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2">
+      <c r="B419" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2">
+      <c r="B420" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2">
+      <c r="B421" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2">
+      <c r="B422" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2">
+      <c r="B423" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2">
+      <c r="B424" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2">
+      <c r="B425" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2">
+      <c r="B426" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2">
+      <c r="B427" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2">
+      <c r="B428" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2">
+      <c r="B429" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2">
+      <c r="B430" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2">
+      <c r="B431" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2">
+      <c r="B433" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2">
+      <c r="B434" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2">
+      <c r="B435" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2">
+      <c r="B437" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2">
+      <c r="B438" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2">
+      <c r="B439" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2">
+      <c r="B440" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2">
+      <c r="B441" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2">
+      <c r="B442" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2">
+      <c r="B443" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2">
+      <c r="B445" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2">
+      <c r="B446" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2">
+      <c r="B447" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2">
+      <c r="B449" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2">
+      <c r="B450" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2">
+      <c r="B451" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2">
+      <c r="B452" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2">
+      <c r="B453" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2">
+      <c r="B454" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2">
+      <c r="B455" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2">
+      <c r="B456" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2">
+      <c r="B457" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2">
+      <c r="B458" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2">
+      <c r="B460" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2">
+      <c r="B461" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2">
+      <c r="B462" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2">
+      <c r="B463" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2">
+      <c r="B464" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2">
+      <c r="B465" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2">
+      <c r="B467" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2">
+      <c r="B468" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2">
+      <c r="B469" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2">
+      <c r="B470" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2">
+      <c r="B471" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2">
+      <c r="B472" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2">
+      <c r="B473" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2">
+      <c r="B474" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2">
+      <c r="B475" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2">
+      <c r="B477" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2">
+      <c r="B478" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2">
+      <c r="B479" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2">
+      <c r="B481" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2">
+      <c r="B482" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2">
+      <c r="B483" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2">
+      <c r="B484" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2">
+      <c r="B485" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2">
+      <c r="B487" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2">
+      <c r="B488" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2">
+      <c r="B489" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2">
+      <c r="B490" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2">
+      <c r="B491" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2">
+      <c r="B493" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2">
+      <c r="B494" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2">
+      <c r="B495" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2">
+      <c r="B496" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2">
+      <c r="B497" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2">
+      <c r="B499" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2">
+      <c r="B500" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2">
+      <c r="B501" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2">
+      <c r="B502" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2">
+      <c r="B503" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2">
+      <c r="B504" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2">
+      <c r="B506" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2">
+      <c r="B507" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2">
+      <c r="B508" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2">
+      <c r="B509" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2">
+      <c r="B511" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2">
+      <c r="B512" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2">
+      <c r="B513" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2">
+      <c r="B514" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2">
+      <c r="B515" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2">
+      <c r="B517" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2">
+      <c r="B518" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2">
+      <c r="B519" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2">
+      <c r="B520" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2">
+      <c r="B521" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2">
+      <c r="B522" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2">
+      <c r="B523" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2">
+      <c r="B525" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2">
+      <c r="B526" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="527" spans="2:2">
+      <c r="B527" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2">
+      <c r="B528" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2">
+      <c r="B530" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2">
+      <c r="B531" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2">
+      <c r="B532" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2">
+      <c r="B533" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="534" spans="2:2">
+      <c r="B534" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2">
+      <c r="B535" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2">
+      <c r="B536" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="537" spans="2:2">
+      <c r="B537" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="538" spans="2:2">
+      <c r="B538" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2">
+      <c r="B539" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2">
+      <c r="B540" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2">
+      <c r="B541" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2">
+      <c r="B542" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2">
+      <c r="B543" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2">
+      <c r="B545" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2">
+      <c r="B546" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2">
+      <c r="B547" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2">
+      <c r="B548" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="549" spans="2:2">
+      <c r="B549" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2">
+      <c r="B550" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2">
+      <c r="B551" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="552" spans="2:2">
+      <c r="B552" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="553" spans="2:2">
+      <c r="B553" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="554" spans="2:2">
+      <c r="B554" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="555" spans="2:2">
+      <c r="B555" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="556" spans="2:2">
+      <c r="B556" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="557" spans="2:2">
+      <c r="B557" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="558" spans="2:2">
+      <c r="B558" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="560" spans="2:2">
+      <c r="B560" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="561" spans="2:2">
+      <c r="B561" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="562" spans="2:2">
+      <c r="B562" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2">
+      <c r="B563" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="565" spans="2:2">
+      <c r="B565" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="566" spans="2:2">
+      <c r="B566" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="567" spans="2:2">
+      <c r="B567" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="569" spans="2:2">
+      <c r="B569" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="570" spans="2:2">
+      <c r="B570" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="571" spans="2:2">
+      <c r="B571" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="572" spans="2:2">
+      <c r="B572" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="573" spans="2:2">
+      <c r="B573" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="574" spans="2:2">
+      <c r="B574" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="575" spans="2:2">
+      <c r="B575" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2">
+      <c r="B577" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="578" spans="2:2">
+      <c r="B578" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="579" spans="2:2">
+      <c r="B579" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="580" spans="2:2">
+      <c r="B580" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="582" spans="2:2">
+      <c r="B582" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2">
+      <c r="B583" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="584" spans="2:2">
+      <c r="B584" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="585" spans="2:2">
+      <c r="B585" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="587" spans="2:2">
+      <c r="B587" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="588" spans="2:2">
+      <c r="B588" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="589" spans="2:2">
+      <c r="B589" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="590" spans="2:2">
+      <c r="B590" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="591" spans="2:2">
+      <c r="B591" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="592" spans="2:2">
+      <c r="B592" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="593" spans="2:2">
+      <c r="B593" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="594" spans="2:2">
+      <c r="B594" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="595" spans="2:2">
+      <c r="B595" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="596" spans="2:2">
+      <c r="B596" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="597" spans="2:2">
+      <c r="B597" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="599" spans="2:2">
+      <c r="B599" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="600" spans="2:2">
+      <c r="B600" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="601" spans="2:2">
+      <c r="B601" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="602" spans="2:2">
+      <c r="B602" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="603" spans="2:2">
+      <c r="B603" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="604" spans="2:2">
+      <c r="B604" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="606" spans="2:2">
+      <c r="B606" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="607" spans="2:2">
+      <c r="B607" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="609" spans="2:2">
+      <c r="B609" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="610" spans="2:2">
+      <c r="B610" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="611" spans="2:2">
+      <c r="B611" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="612" spans="2:2">
+      <c r="B612" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="614" spans="2:2">
+      <c r="B614" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="615" spans="2:2">
+      <c r="B615" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="616" spans="2:2">
+      <c r="B616" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="617" spans="2:2">
+      <c r="B617" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="618" spans="2:2">
+      <c r="B618" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="619" spans="2:2">
+      <c r="B619" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="620" spans="2:2">
+      <c r="B620" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="621" spans="2:2">
+      <c r="B621" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="622" spans="2:2">
+      <c r="B622" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="623" spans="2:2">
+      <c r="B623" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="624" spans="2:2">
+      <c r="B624" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="625" spans="2:2">
+      <c r="B625" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="626" spans="2:2">
+      <c r="B626" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="627" spans="2:2">
+      <c r="B627" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="628" spans="2:2">
+      <c r="B628" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="629" spans="2:2">
+      <c r="B629" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="630" spans="2:2">
+      <c r="B630" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="631" spans="2:2">
+      <c r="B631" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="632" spans="2:2">
+      <c r="B632" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="633" spans="2:2">
+      <c r="B633" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="634" spans="2:2">
+      <c r="B634" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="635" spans="2:2">
+      <c r="B635" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="636" spans="2:2">
+      <c r="B636" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="637" spans="2:2">
+      <c r="B637" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="638" spans="2:2">
+      <c r="B638" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="639" spans="2:2">
+      <c r="B639" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="640" spans="2:2">
+      <c r="B640" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="641" spans="2:2">
+      <c r="B641" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="643" spans="2:2">
+      <c r="B643" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="644" spans="2:2">
+      <c r="B644" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="645" spans="2:2">
+      <c r="B645" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="646" spans="2:2">
+      <c r="B646" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="648" spans="2:2">
+      <c r="B648" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="649" spans="2:2">
+      <c r="B649" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="650" spans="2:2">
+      <c r="B650" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="651" spans="2:2">
+      <c r="B651" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="652" spans="2:2">
+      <c r="B652" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="653" spans="2:2">
+      <c r="B653" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="654" spans="2:2">
+      <c r="B654" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="655" spans="2:2">
+      <c r="B655" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="656" spans="2:2">
+      <c r="B656" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="657" spans="2:2">
+      <c r="B657" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="658" spans="2:2">
+      <c r="B658" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="659" spans="2:2">
+      <c r="B659" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="660" spans="2:2">
+      <c r="B660" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="661" spans="2:2">
+      <c r="B661" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="662" spans="2:2">
+      <c r="B662" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="663" spans="2:2">
+      <c r="B663" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="665" spans="2:2">
+      <c r="B665" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="666" spans="2:2">
+      <c r="B666" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="667" spans="2:2">
+      <c r="B667" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="668" spans="2:2">
+      <c r="B668" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="670" spans="2:2">
+      <c r="B670" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="671" spans="2:2">
+      <c r="B671" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="672" spans="2:2">
+      <c r="B672" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="674" spans="2:2">
+      <c r="B674" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="675" spans="2:2">
+      <c r="B675" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="676" spans="2:2">
+      <c r="B676" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="677" spans="2:2">
+      <c r="B677" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="678" spans="2:2">
+      <c r="B678" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="679" spans="2:2">
+      <c r="B679" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="680" spans="2:2">
+      <c r="B680" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="681" spans="2:2">
+      <c r="B681" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="682" spans="2:2">
+      <c r="B682" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="683" spans="2:2">
+      <c r="B683" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="685" spans="2:2">
+      <c r="B685" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="687" spans="2:2">
+      <c r="B687" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="688" spans="2:2">
+      <c r="B688" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="689" spans="2:2">
+      <c r="B689" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="690" spans="2:2">
+      <c r="B690" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="692" spans="2:2">
+      <c r="B692" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="693" spans="2:2">
+      <c r="B693" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="694" spans="2:2">
+      <c r="B694" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="695" spans="2:2">
+      <c r="B695" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="696" spans="2:2">
+      <c r="B696" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="697" spans="2:2">
+      <c r="B697" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="698" spans="2:2">
+      <c r="B698" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="699" spans="2:2">
+      <c r="B699" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="700" spans="2:2">
+      <c r="B700" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="702" spans="2:2">
+      <c r="B702" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="703" spans="2:2">
+      <c r="B703" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="704" spans="2:2">
+      <c r="B704" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="706" spans="2:2">
+      <c r="B706" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="708" spans="2:2">
+      <c r="B708" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="709" spans="2:2">
+      <c r="B709" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="710" spans="2:2">
+      <c r="B710" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="712" spans="2:2">
+      <c r="B712" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="713" spans="2:2">
+      <c r="B713" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="714" spans="2:2">
+      <c r="B714" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="715" spans="2:2">
+      <c r="B715" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="716" spans="2:2">
+      <c r="B716" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="717" spans="2:2">
+      <c r="B717" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="718" spans="2:2">
+      <c r="B718" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="720" spans="2:2">
+      <c r="B720" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="721" spans="2:2">
+      <c r="B721" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="722" spans="2:2">
+      <c r="B722" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="723" spans="2:2">
+      <c r="B723" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="725" spans="2:2">
+      <c r="B725" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="727" spans="2:2">
+      <c r="B727" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="728" spans="2:2">
+      <c r="B728" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="729" spans="2:2">
+      <c r="B729" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="730" spans="2:2">
+      <c r="B730" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="731" spans="2:2">
+      <c r="B731" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="732" spans="2:2">
+      <c r="B732" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="733" spans="2:2">
+      <c r="B733" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="734" spans="2:2">
+      <c r="B734" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="735" spans="2:2">
+      <c r="B735" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="736" spans="2:2">
+      <c r="B736" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="738" spans="2:2">
+      <c r="B738" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="739" spans="2:2">
+      <c r="B739" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="740" spans="2:2">
+      <c r="B740" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="741" spans="2:2">
+      <c r="B741" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="742" spans="2:2">
+      <c r="B742" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="743" spans="2:2">
+      <c r="B743" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="744" spans="2:2">
+      <c r="B744" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="745" spans="2:2">
+      <c r="B745" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="746" spans="2:2">
+      <c r="B746" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="747" spans="2:2">
+      <c r="B747" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="748" spans="2:2">
+      <c r="B748" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="749" spans="2:2">
+      <c r="B749" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="750" spans="2:2">
+      <c r="B750" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="751" spans="2:2">
+      <c r="B751" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="752" spans="2:2">
+      <c r="B752" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="753" spans="2:2">
+      <c r="B753" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="754" spans="2:2">
+      <c r="B754" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="755" spans="2:2">
+      <c r="B755" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="757" spans="2:2">
+      <c r="B757" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="758" spans="2:2">
+      <c r="B758" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="759" spans="2:2">
+      <c r="B759" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="760" spans="2:2">
+      <c r="B760" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="761" spans="2:2">
+      <c r="B761" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="762" spans="2:2">
+      <c r="B762" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="764" spans="2:2">
+      <c r="B764" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="765" spans="2:2">
+      <c r="B765" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="766" spans="2:2">
+      <c r="B766" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="768" spans="2:2">
+      <c r="B768" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="769" spans="2:2">
+      <c r="B769" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="771" spans="2:2">
+      <c r="B771" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="772" spans="2:2">
+      <c r="B772" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="773" spans="2:2">
+      <c r="B773" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="774" spans="2:2">
+      <c r="B774" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="775" spans="2:2">
+      <c r="B775" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="776" spans="2:2">
+      <c r="B776" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="777" spans="2:2">
+      <c r="B777" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="778" spans="2:2">
+      <c r="B778" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="780" spans="2:2">
+      <c r="B780" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="781" spans="2:2">
+      <c r="B781" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="782" spans="2:2">
+      <c r="B782" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +6032,941 @@
     <hyperlink ref="B105" r:id="rId95" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-eventsubscription.html" xr:uid="{52DAEFFE-0046-47C6-A91B-3A6368BEEC2C}"/>
     <hyperlink ref="B106" r:id="rId96" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-globalcluster.html" xr:uid="{5EFDF190-BB23-47E6-B95B-830D4C932909}"/>
     <hyperlink ref="B107" r:id="rId97" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-optiongroup.html" xr:uid="{8B9223A9-1FEF-4B7C-BAA6-A3DA76866590}"/>
+    <hyperlink ref="B109" r:id="rId98" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-capacityreservation.html" xr:uid="{5FBF4455-2D49-4A57-86C8-27F171F99884}"/>
+    <hyperlink ref="B110" r:id="rId99" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-capacityreservationfleet.html" xr:uid="{2EE6CDEB-A25B-4BE9-849F-B220D3934815}"/>
+    <hyperlink ref="B111" r:id="rId100" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-carriergateway.html" xr:uid="{276F3BC1-E417-42F8-9446-CB5956275D92}"/>
+    <hyperlink ref="B112" r:id="rId101" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-clientvpnauthorizationrule.html" xr:uid="{D64C3CF0-B558-4D54-8D43-7AFE84F03D28}"/>
+    <hyperlink ref="B113" r:id="rId102" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-clientvpnendpoint.html" xr:uid="{CA7638DB-2F87-4C7F-A9A0-65C497581A59}"/>
+    <hyperlink ref="B114" r:id="rId103" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-clientvpnroute.html" xr:uid="{E161E0A5-4B71-4E79-B9D9-F792623E0924}"/>
+    <hyperlink ref="B115" r:id="rId104" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-clientvpntargetnetworkassociation.html" xr:uid="{C066577A-1B7D-43DA-B897-125EB7CB7AA8}"/>
+    <hyperlink ref="B116" r:id="rId105" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-customergateway.html" xr:uid="{73955B45-D4D8-4580-9A47-B57CAA252783}"/>
+    <hyperlink ref="B117" r:id="rId106" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-dhcpoptions.html" xr:uid="{F8D1D23E-5D86-4C9F-9A68-8CF5E1D4E2C6}"/>
+    <hyperlink ref="B118" r:id="rId107" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-ec2fleet.html" xr:uid="{D73C17AE-EE57-476A-9735-62995F01961E}"/>
+    <hyperlink ref="B119" r:id="rId108" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-egressonlyinternetgateway.html" xr:uid="{B2DB7FA6-1A0A-4D3A-B1C1-D2BC024D06AC}"/>
+    <hyperlink ref="B120" r:id="rId109" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-eip.html" xr:uid="{D8CA65FF-7B83-442B-AA2D-E9898CDBBFE7}"/>
+    <hyperlink ref="B121" r:id="rId110" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-eipassociation.html" xr:uid="{C055B6F6-B6A9-4507-8432-6746FFC38C5A}"/>
+    <hyperlink ref="B122" r:id="rId111" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-enclavecertificateiamroleassociation.html" xr:uid="{B8A2FB74-5CBE-4BAD-809C-99621B51D9CB}"/>
+    <hyperlink ref="B123" r:id="rId112" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-flowlog.html" xr:uid="{CCC6C367-F86D-4D5D-8A36-1E1FB76CA0DB}"/>
+    <hyperlink ref="B124" r:id="rId113" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-gatewayroutetableassociation.html" xr:uid="{979DA12B-9317-42EF-8879-465BE77B75D5}"/>
+    <hyperlink ref="B125" r:id="rId114" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-host.html" xr:uid="{72AE2DF3-EBD1-4AE5-8023-105AD9E3E809}"/>
+    <hyperlink ref="B126" r:id="rId115" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-instance.html" xr:uid="{9E139FEA-8C2A-494F-A15E-B3F8ACD3CD88}"/>
+    <hyperlink ref="B127" r:id="rId116" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-instanceconnectendpoint.html" xr:uid="{F0F54587-51AA-471B-97D7-0BBABABF48DD}"/>
+    <hyperlink ref="B128" r:id="rId117" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-internetgateway.html" xr:uid="{C39AA672-931E-450A-B0B8-150275AF4ABE}"/>
+    <hyperlink ref="B129" r:id="rId118" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-ipam.html" xr:uid="{7F8A4EEC-BA35-464D-ACAF-9416C9C68A2C}"/>
+    <hyperlink ref="B130" r:id="rId119" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-ipamallocation.html" xr:uid="{014E80CA-9F8E-4A5F-828A-7FBFE2FA68D1}"/>
+    <hyperlink ref="B131" r:id="rId120" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-ipampool.html" xr:uid="{8D9E27B0-1C25-4418-9057-C501A4E973D9}"/>
+    <hyperlink ref="B132" r:id="rId121" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-ipampoolcidr.html" xr:uid="{48A9754B-2B4B-4C8D-8526-173A51972A8A}"/>
+    <hyperlink ref="B133" r:id="rId122" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-ipamresourcediscovery.html" xr:uid="{40E03705-34D2-4AC6-9BE4-299DFF0DCAA8}"/>
+    <hyperlink ref="B134" r:id="rId123" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-ipamresourcediscoveryassociation.html" xr:uid="{6F5AF133-CF94-43A0-B4BE-5D09E5D8371E}"/>
+    <hyperlink ref="B135" r:id="rId124" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-ipamscope.html" xr:uid="{25082AB1-C1BF-4C0F-A102-33C3F063C892}"/>
+    <hyperlink ref="B136" r:id="rId125" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-keypair.html" xr:uid="{F51D2D56-6760-436C-81B9-46C264FBA055}"/>
+    <hyperlink ref="B137" r:id="rId126" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-launchtemplate.html" xr:uid="{3B37BC83-AABC-4A12-BFD7-A21A2113D0AB}"/>
+    <hyperlink ref="B138" r:id="rId127" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-localgatewayroute.html" xr:uid="{D55B874B-1CDA-4C2A-8D1F-06B8A95ED321}"/>
+    <hyperlink ref="B139" r:id="rId128" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-localgatewayroutetable.html" xr:uid="{BEF00D9A-E568-4F8F-8C48-3DD061CA9466}"/>
+    <hyperlink ref="B140" r:id="rId129" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-localgatewayroutetablevirtualinterfacegroupassociation.html" xr:uid="{F09767C8-9A00-46A1-B455-695FC9001076}"/>
+    <hyperlink ref="B141" r:id="rId130" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-localgatewayroutetablevpcassociation.html" xr:uid="{806A47D0-49CD-4C8A-81AC-B28FBEB25451}"/>
+    <hyperlink ref="B142" r:id="rId131" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-natgateway.html" xr:uid="{AEFFF182-E27E-4E54-B454-F74A4F22D7B2}"/>
+    <hyperlink ref="B143" r:id="rId132" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-networkacl.html" xr:uid="{D0451256-CE20-4A92-9F2C-B52BC8EDDA4B}"/>
+    <hyperlink ref="B144" r:id="rId133" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-networkaclentry.html" xr:uid="{87C6BE82-EA1F-4CC0-9A49-8D3C6A376968}"/>
+    <hyperlink ref="B145" r:id="rId134" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-networkinsightsaccessscope.html" xr:uid="{4159FCAF-4EA0-442D-8100-EA352128202F}"/>
+    <hyperlink ref="B146" r:id="rId135" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-networkinsightsaccessscopeanalysis.html" xr:uid="{03159806-6F97-48B9-A59C-49FE42F434F5}"/>
+    <hyperlink ref="B147" r:id="rId136" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-networkinsightsanalysis.html" xr:uid="{D7CA0F28-9774-49A3-A906-D0FF2DEDC94C}"/>
+    <hyperlink ref="B148" r:id="rId137" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-networkinsightspath.html" xr:uid="{D9430F93-D652-431C-BF18-AD7E60648F5E}"/>
+    <hyperlink ref="B149" r:id="rId138" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-networkinterface.html" xr:uid="{D752B321-EBF1-46DE-BDB7-0119E04A171A}"/>
+    <hyperlink ref="B150" r:id="rId139" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-networkinterfaceattachment.html" xr:uid="{065C7D32-F33F-4FA1-B383-AA5C06FF6713}"/>
+    <hyperlink ref="B151" r:id="rId140" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-networkinterfacepermission.html" xr:uid="{FEF6A289-238E-4265-BD12-C04BDB794265}"/>
+    <hyperlink ref="B152" r:id="rId141" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-networkperformancemetricsubscription.html" xr:uid="{70A3782D-62BB-455F-8942-52B3B072DECB}"/>
+    <hyperlink ref="B153" r:id="rId142" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-placementgroup.html" xr:uid="{8A222668-A56B-4614-8528-800B139C83DB}"/>
+    <hyperlink ref="B154" r:id="rId143" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-prefixlist.html" xr:uid="{B66303E7-A2D0-4B3A-9458-C58F173D8D47}"/>
+    <hyperlink ref="B155" r:id="rId144" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-route.html" xr:uid="{3ABBD2D1-AEB6-41FE-B9A2-0E0F34EBB517}"/>
+    <hyperlink ref="B156" r:id="rId145" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-routetable.html" xr:uid="{BF70304E-8C60-42F2-A78F-5159AE0814D4}"/>
+    <hyperlink ref="B157" r:id="rId146" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-securitygroup.html" xr:uid="{868DADCF-E540-41FB-A3B1-304F75196CFA}"/>
+    <hyperlink ref="B158" r:id="rId147" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-securitygroupegress.html" xr:uid="{72117EF7-F9B8-4596-9371-DE3AB00BF321}"/>
+    <hyperlink ref="B159" r:id="rId148" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-securitygroupingress.html" xr:uid="{F9069D42-91C8-4505-8D7C-F0A3D3769E41}"/>
+    <hyperlink ref="B160" r:id="rId149" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-spotfleet.html" xr:uid="{031416A7-80C8-4D39-9524-CC2CB616BBA8}"/>
+    <hyperlink ref="B161" r:id="rId150" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-subnet.html" xr:uid="{55D905DC-2116-4F1B-8F2A-B9C4C9B8B46E}"/>
+    <hyperlink ref="B162" r:id="rId151" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-subnetcidrblock.html" xr:uid="{9D33EFDA-FD3F-4604-B63F-204F97A93E58}"/>
+    <hyperlink ref="B163" r:id="rId152" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-subnetnetworkaclassociation.html" xr:uid="{3D70B829-C548-46E8-9975-743A2EBE8CC3}"/>
+    <hyperlink ref="B164" r:id="rId153" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-subnetroutetableassociation.html" xr:uid="{107D361F-74FA-4436-898D-044D40C2E89C}"/>
+    <hyperlink ref="B165" r:id="rId154" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-trafficmirrorfilter.html" xr:uid="{ACC4152D-6145-44CF-BB8C-74D45EFED69B}"/>
+    <hyperlink ref="B166" r:id="rId155" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-trafficmirrorfilterrule.html" xr:uid="{64177573-3BDB-4EA4-898C-B63058675B55}"/>
+    <hyperlink ref="B167" r:id="rId156" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-trafficmirrorsession.html" xr:uid="{E7AB5CD9-8E98-40D4-96D4-A2C899920ED5}"/>
+    <hyperlink ref="B168" r:id="rId157" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-trafficmirrortarget.html" xr:uid="{F8AB1614-57D2-4B69-95BD-7F7A4AE8901D}"/>
+    <hyperlink ref="B169" r:id="rId158" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-transitgateway.html" xr:uid="{AEBBD75F-8208-4070-8DE2-085033E4DB1C}"/>
+    <hyperlink ref="B170" r:id="rId159" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-transitgatewayattachment.html" xr:uid="{7BE5E1DA-456A-429A-92D0-9427065355D5}"/>
+    <hyperlink ref="B171" r:id="rId160" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-transitgatewayconnect.html" xr:uid="{A5239058-339E-4930-BB0A-DD0FB5433D2C}"/>
+    <hyperlink ref="B172" r:id="rId161" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-transitgatewaymulticastdomain.html" xr:uid="{84414B58-CDA8-4E88-A9DA-F3372F690B55}"/>
+    <hyperlink ref="B173" r:id="rId162" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-transitgatewaymulticastdomainassociation.html" xr:uid="{15D5594E-38EF-4867-9571-14F9F0A49401}"/>
+    <hyperlink ref="B174" r:id="rId163" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-transitgatewaymulticastgroupmember.html" xr:uid="{AB431E10-0DEA-4DD5-807B-315813C4C519}"/>
+    <hyperlink ref="B175" r:id="rId164" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-transitgatewaymulticastgroupsource.html" xr:uid="{8C65F384-707D-41F0-A854-C8A2682997C7}"/>
+    <hyperlink ref="B176" r:id="rId165" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-transitgatewaypeeringattachment.html" xr:uid="{7C054686-7425-45E3-A05C-9B289C904907}"/>
+    <hyperlink ref="B177" r:id="rId166" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-transitgatewayroute.html" xr:uid="{CB6526D4-BB17-4BD6-B934-DA82C13896D4}"/>
+    <hyperlink ref="B178" r:id="rId167" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-transitgatewayroutetable.html" xr:uid="{6D0CF831-9E96-4E11-A55B-7641A6F7CDAB}"/>
+    <hyperlink ref="B179" r:id="rId168" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-transitgatewayroutetableassociation.html" xr:uid="{A16DAAC0-EADD-448B-A31D-5B1E6019542F}"/>
+    <hyperlink ref="B180" r:id="rId169" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-transitgatewayroutetablepropagation.html" xr:uid="{5B8F6AD3-E8AE-4039-BD87-DC5937702517}"/>
+    <hyperlink ref="B181" r:id="rId170" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-transitgatewayvpcattachment.html" xr:uid="{476631D4-A543-4C74-AB49-7F9BF2051A55}"/>
+    <hyperlink ref="B182" r:id="rId171" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-verifiedaccessendpoint.html" xr:uid="{BB8964FA-E8A2-4D59-A821-91EE86D9D975}"/>
+    <hyperlink ref="B183" r:id="rId172" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-verifiedaccessgroup.html" xr:uid="{2AE54BE6-0C56-4DDA-B07C-D6D626EF8CB3}"/>
+    <hyperlink ref="B184" r:id="rId173" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-verifiedaccessinstance.html" xr:uid="{FF2ECB62-887B-4498-BCB9-32EBACEE067E}"/>
+    <hyperlink ref="B185" r:id="rId174" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-verifiedaccesstrustprovider.html" xr:uid="{0A5F32B0-B1BF-4A7B-9BDE-2ABEB5D4DCFE}"/>
+    <hyperlink ref="B186" r:id="rId175" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-volume.html" xr:uid="{49302FBE-1851-479F-8B95-D86E61DC0D49}"/>
+    <hyperlink ref="B187" r:id="rId176" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-volumeattachment.html" xr:uid="{5AD1B1F7-53D1-4C25-8D38-5BD596D7B051}"/>
+    <hyperlink ref="B188" r:id="rId177" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-vpc.html" xr:uid="{B219E8A7-7BFC-4004-86CD-9076A6AAD071}"/>
+    <hyperlink ref="B189" r:id="rId178" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-vpccidrblock.html" xr:uid="{E4807867-C6D8-495A-9624-17BEE6C2AFC0}"/>
+    <hyperlink ref="B190" r:id="rId179" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-vpcdhcpoptionsassociation.html" xr:uid="{917D21EF-6488-4A0F-AC8B-E6DC3B4789F0}"/>
+    <hyperlink ref="B191" r:id="rId180" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-vpcendpoint.html" xr:uid="{945E3774-5CE7-473C-8C68-C6748D89CA7C}"/>
+    <hyperlink ref="B192" r:id="rId181" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-vpcendpointconnectionnotification.html" xr:uid="{A39975E2-F10A-4C2E-BC7B-F6079DB0F278}"/>
+    <hyperlink ref="B193" r:id="rId182" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-vpcendpointservice.html" xr:uid="{BC7DCB40-889D-4BED-A1BE-10B61570F4D3}"/>
+    <hyperlink ref="B194" r:id="rId183" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-vpcendpointservicepermissions.html" xr:uid="{8583385D-5CAB-4CEC-B14D-0C313031BFD4}"/>
+    <hyperlink ref="B195" r:id="rId184" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-vpcgatewayattachment.html" xr:uid="{DA6B2C15-A331-4875-A752-D3B63FAFC381}"/>
+    <hyperlink ref="B196" r:id="rId185" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-vpcpeeringconnection.html" xr:uid="{96456C80-DEA1-4924-9955-C159F5366908}"/>
+    <hyperlink ref="B197" r:id="rId186" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-vpnconnection.html" xr:uid="{1C20E8CE-CF16-45F0-A2D2-D14480C2B015}"/>
+    <hyperlink ref="B198" r:id="rId187" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-vpnconnectionroute.html" xr:uid="{BE512685-48A4-4545-AEF6-FCC1566D5CE6}"/>
+    <hyperlink ref="B199" r:id="rId188" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-vpngateway.html" xr:uid="{EA948AEB-4AAF-40D8-B476-894DEE66B3C5}"/>
+    <hyperlink ref="B200" r:id="rId189" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ec2-vpngatewayroutepropagation.html" xr:uid="{93D78C2D-CCE0-4442-B0D9-AD4E9906AF84}"/>
+    <hyperlink ref="B202" r:id="rId190" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cloudwatch-alarm.html" xr:uid="{BE7C71B9-9EAC-497F-9C36-9F609600D9D0}"/>
+    <hyperlink ref="B203" r:id="rId191" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cloudwatch-anomalydetector.html" xr:uid="{420CE3C1-8338-4D5A-8E20-6016FC5FF6F7}"/>
+    <hyperlink ref="B204" r:id="rId192" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cloudwatch-compositealarm.html" xr:uid="{D019E0CF-1B6F-42EE-B046-F41AAD358462}"/>
+    <hyperlink ref="B205" r:id="rId193" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cloudwatch-dashboard.html" xr:uid="{73D800BB-8D80-4862-8AA4-39BF6F1D838A}"/>
+    <hyperlink ref="B206" r:id="rId194" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cloudwatch-insightrule.html" xr:uid="{1E8EDA38-07D3-42CF-8088-93367175D190}"/>
+    <hyperlink ref="B207" r:id="rId195" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cloudwatch-metricstream.html" xr:uid="{F620A7EE-E44A-49F5-A07D-C109B57FA484}"/>
+    <hyperlink ref="B209" r:id="rId196" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-logs-accountpolicy.html" xr:uid="{E0C65AFC-6F39-4A6B-9373-D0CFF2D75288}"/>
+    <hyperlink ref="B210" r:id="rId197" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-logs-destination.html" xr:uid="{FCC39F20-05ED-460F-9135-A7B2BEBE7DF4}"/>
+    <hyperlink ref="B211" r:id="rId198" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-logs-loggroup.html" xr:uid="{58239740-27C0-46CC-9D2E-6A442A41216A}"/>
+    <hyperlink ref="B212" r:id="rId199" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-logs-logstream.html" xr:uid="{E0B2255A-B49F-4C5E-913C-CAE3B05CD4E2}"/>
+    <hyperlink ref="B213" r:id="rId200" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-logs-metricfilter.html" xr:uid="{80E9B264-C3F0-4580-85E1-8B900F754EE8}"/>
+    <hyperlink ref="B214" r:id="rId201" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-logs-querydefinition.html" xr:uid="{8C200893-ED7C-4C46-B89E-0E4D5438304A}"/>
+    <hyperlink ref="B215" r:id="rId202" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-logs-resourcepolicy.html" xr:uid="{8EE4015A-8716-40DF-B2C2-C847AFCD3F4D}"/>
+    <hyperlink ref="B216" r:id="rId203" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-logs-subscriptionfilter.html" xr:uid="{A428E018-B719-4CB3-8689-4CADC539740C}"/>
+    <hyperlink ref="B218" r:id="rId204" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-codeartifact-domain.html" xr:uid="{010731E2-C12B-48B7-B678-C59F531C2610}"/>
+    <hyperlink ref="B219" r:id="rId205" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-codeartifact-repository.html" xr:uid="{70632EC7-826E-4CFA-A065-62211850C84A}"/>
+    <hyperlink ref="B221" r:id="rId206" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-codebuild-project.html" xr:uid="{520E1E46-F01E-4286-BD46-8749ABBD3BEB}"/>
+    <hyperlink ref="B222" r:id="rId207" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-codebuild-reportgroup.html" xr:uid="{0115989A-EA77-443D-B867-D21E6CD4114F}"/>
+    <hyperlink ref="B223" r:id="rId208" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-codebuild-sourcecredential.html" xr:uid="{75C3DCC2-9343-480D-8E15-B4CE4B3E06D8}"/>
+    <hyperlink ref="B225" r:id="rId209" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-codecommit-repository.html" xr:uid="{999BAD65-EFFC-404B-9E4C-5F39143A2138}"/>
+    <hyperlink ref="B227" r:id="rId210" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-codedeploy-application.html" xr:uid="{AAAC90FD-AD85-4759-AFA4-0A4DB17786FC}"/>
+    <hyperlink ref="B228" r:id="rId211" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-codedeploy-deploymentconfig.html" xr:uid="{DA1B1C91-2399-4050-890B-51D3D67A5D5A}"/>
+    <hyperlink ref="B229" r:id="rId212" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-codedeploy-deploymentgroup.html" xr:uid="{C610B893-48D0-43AD-9DC6-A7C42056863C}"/>
+    <hyperlink ref="B231" r:id="rId213" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-codepipeline-customactiontype.html" xr:uid="{F497625A-B00B-422D-A7F9-39EC43B0A876}"/>
+    <hyperlink ref="B232" r:id="rId214" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-codepipeline-pipeline.html" xr:uid="{6515309E-7D5D-4090-9FEA-8263ABB65C4B}"/>
+    <hyperlink ref="B233" r:id="rId215" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-codepipeline-webhook.html" xr:uid="{019A76A0-BF79-4400-B999-207692948144}"/>
+    <hyperlink ref="B235" r:id="rId216" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-codestar-githubrepository.html" xr:uid="{DD746774-16C1-4A1B-B899-F73DA2C7E199}"/>
+    <hyperlink ref="B236" r:id="rId217" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-codestarconnections-connection.html" xr:uid="{100E4757-6BC2-4BCA-8412-3746D02CDB5A}"/>
+    <hyperlink ref="B237" r:id="rId218" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-codestarnotifications-notificationrule.html" xr:uid="{8C58DCF2-11CC-47B0-BEEE-6D0032E1C357}"/>
+    <hyperlink ref="B239" r:id="rId219" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cognito-identitypool.html" xr:uid="{14601DE0-FF35-408C-843E-C3744F85823D}"/>
+    <hyperlink ref="B240" r:id="rId220" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cognito-identitypoolprincipaltag.html" xr:uid="{E4168316-94BC-4D62-8BD4-A04945D4E88B}"/>
+    <hyperlink ref="B241" r:id="rId221" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cognito-identitypoolroleattachment.html" xr:uid="{8F1A94B4-5E7E-4E7B-B415-4E233B728520}"/>
+    <hyperlink ref="B242" r:id="rId222" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cognito-logdeliveryconfiguration.html" xr:uid="{25315BCA-B2EC-4374-83AF-8147C5AE6503}"/>
+    <hyperlink ref="B243" r:id="rId223" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cognito-userpool.html" xr:uid="{5E0B8DCA-57F7-4C5A-8D29-F62A047E8BB1}"/>
+    <hyperlink ref="B244" r:id="rId224" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cognito-userpoolclient.html" xr:uid="{3C295A00-8BE3-44B8-A5E9-BC8C4B2E3C39}"/>
+    <hyperlink ref="B245" r:id="rId225" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cognito-userpooldomain.html" xr:uid="{D1A24DB2-F6B1-44C5-BDEF-723174543FC7}"/>
+    <hyperlink ref="B246" r:id="rId226" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cognito-userpoolgroup.html" xr:uid="{786F0C9E-2E97-46FB-8964-F229F243C11D}"/>
+    <hyperlink ref="B247" r:id="rId227" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cognito-userpoolidentityprovider.html" xr:uid="{691CCC27-FD1C-4877-972E-5824D0F8D4BF}"/>
+    <hyperlink ref="B248" r:id="rId228" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cognito-userpoolresourceserver.html" xr:uid="{9ABC204A-63DB-47D1-BE12-4028842B3F16}"/>
+    <hyperlink ref="B249" r:id="rId229" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cognito-userpoolriskconfigurationattachment.html" xr:uid="{07545FC9-6DF0-4A39-8DA5-3FD2214C79AB}"/>
+    <hyperlink ref="B250" r:id="rId230" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cognito-userpooluicustomizationattachment.html" xr:uid="{4A11E6DA-183A-48B9-A115-FA35B403C307}"/>
+    <hyperlink ref="B251" r:id="rId231" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cognito-userpooluser.html" xr:uid="{59940100-2684-4245-99F0-8FDD18A91D06}"/>
+    <hyperlink ref="B252" r:id="rId232" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-cognito-userpoolusertogroupattachment.html" xr:uid="{C9CEFF00-7111-479B-942C-67AFBF78D117}"/>
+    <hyperlink ref="B254" r:id="rId233" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-config-aggregationauthorization.html" xr:uid="{BF90E44C-4261-4651-B66E-5BAF1412BC4F}"/>
+    <hyperlink ref="B255" r:id="rId234" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-config-configrule.html" xr:uid="{9AE37BD1-E76B-4C2D-BF49-D271FB732E37}"/>
+    <hyperlink ref="B256" r:id="rId235" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-config-configurationaggregator.html" xr:uid="{2777F2E0-C0D1-4CE6-94A4-68E6ECF2D192}"/>
+    <hyperlink ref="B257" r:id="rId236" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-config-configurationrecorder.html" xr:uid="{45353A95-8015-461B-A12A-CD6E2ACEE52E}"/>
+    <hyperlink ref="B258" r:id="rId237" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-config-conformancepack.html" xr:uid="{4E864EAB-BE34-49F6-803C-4ADD40A82C90}"/>
+    <hyperlink ref="B259" r:id="rId238" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-config-deliverychannel.html" xr:uid="{7CC91A21-B628-480D-95C6-72CAE0F08230}"/>
+    <hyperlink ref="B260" r:id="rId239" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-config-organizationconfigrule.html" xr:uid="{867192CE-96F7-4719-AB98-B5F03CCCE45D}"/>
+    <hyperlink ref="B261" r:id="rId240" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-config-organizationconformancepack.html" xr:uid="{63F5E14D-489D-4469-AD74-BFCAE6B8C7AE}"/>
+    <hyperlink ref="B262" r:id="rId241" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-config-remediationconfiguration.html" xr:uid="{72DFAF04-25F6-475A-B67D-210EB67376E8}"/>
+    <hyperlink ref="B263" r:id="rId242" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-config-storedquery.html" xr:uid="{EF76E7EF-A393-4BE5-B2AA-5A5D283C4ADC}"/>
+    <hyperlink ref="B265" r:id="rId243" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-approvedorigin.html" xr:uid="{027AC89B-75D4-49D0-BA2E-8613F4DFC379}"/>
+    <hyperlink ref="B266" r:id="rId244" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-contactflow.html" xr:uid="{D098D4A8-D2AD-4E76-B8F7-F127AF80CFFF}"/>
+    <hyperlink ref="B267" r:id="rId245" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-contactflowmodule.html" xr:uid="{BFB56DDC-CB9D-4054-8126-F5C04158983E}"/>
+    <hyperlink ref="B268" r:id="rId246" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-evaluationform.html" xr:uid="{45675984-B24E-4EB2-A64A-DADB6BC5F65C}"/>
+    <hyperlink ref="B269" r:id="rId247" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-hoursofoperation.html" xr:uid="{7598F722-1A04-49FD-A05A-CE91002FD836}"/>
+    <hyperlink ref="B270" r:id="rId248" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-instance.html" xr:uid="{9752C29A-D5FD-43EA-8138-799B43163B1C}"/>
+    <hyperlink ref="B271" r:id="rId249" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-instancestorageconfig.html" xr:uid="{E298610A-CCFA-457D-8A74-84C0F3706420}"/>
+    <hyperlink ref="B272" r:id="rId250" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-integrationassociation.html" xr:uid="{683CD839-5B49-4142-95E0-C0105A53CEB4}"/>
+    <hyperlink ref="B273" r:id="rId251" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-phonenumber.html" xr:uid="{F96F2FE0-E295-4023-9FD1-B92B98288A20}"/>
+    <hyperlink ref="B274" r:id="rId252" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-prompt.html" xr:uid="{C39623AB-C0D3-4889-9A14-75B98860A735}"/>
+    <hyperlink ref="B275" r:id="rId253" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-queue.html" xr:uid="{C9A6F291-6477-443F-B860-9C5FFA838852}"/>
+    <hyperlink ref="B276" r:id="rId254" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-quickconnect.html" xr:uid="{A198926A-6C82-4D08-8F90-10CF7043A295}"/>
+    <hyperlink ref="B277" r:id="rId255" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-routingprofile.html" xr:uid="{F692D69F-454B-44E6-B5C5-F0C54105754C}"/>
+    <hyperlink ref="B278" r:id="rId256" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-rule.html" xr:uid="{CC3F0FA0-ABCC-49EC-A309-C4AAEB2A36B6}"/>
+    <hyperlink ref="B279" r:id="rId257" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-securitykey.html" xr:uid="{E4C6E981-A21A-4CF0-BCFA-9D79A838B3AE}"/>
+    <hyperlink ref="B280" r:id="rId258" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-securityprofile.html" xr:uid="{7AEF4831-4935-433B-8A81-59BD2EB9F85B}"/>
+    <hyperlink ref="B281" r:id="rId259" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-tasktemplate.html" xr:uid="{3292D6B5-E95F-4678-86E4-33EFC8EFFD27}"/>
+    <hyperlink ref="B282" r:id="rId260" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-trafficdistributiongroup.html" xr:uid="{0BFAFC0F-E3B4-482D-A52B-1532A0343B75}"/>
+    <hyperlink ref="B283" r:id="rId261" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-user.html" xr:uid="{28482518-273B-4DAF-9201-54E1A446B222}"/>
+    <hyperlink ref="B284" r:id="rId262" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-userhierarchygroup.html" xr:uid="{C0D86752-5DA5-4310-9EEA-6BED17CE642A}"/>
+    <hyperlink ref="B285" r:id="rId263" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-view.html" xr:uid="{5270F4A3-4692-476F-AD1A-5F4A86E25298}"/>
+    <hyperlink ref="B286" r:id="rId264" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-connect-viewversion.html" xr:uid="{E7548061-7AFF-4FDD-8C12-16F8FC3B8D91}"/>
+    <hyperlink ref="B288" r:id="rId265" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-dax-cluster.html" xr:uid="{2003BEA5-267C-4EBA-AE9C-0C6B02482ADA}"/>
+    <hyperlink ref="B289" r:id="rId266" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-dax-parametergroup.html" xr:uid="{4E6F13CC-A5FB-471A-9543-5C71757C7505}"/>
+    <hyperlink ref="B290" r:id="rId267" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-dax-subnetgroup.html" xr:uid="{F490E18C-CDB7-41FD-A69C-54DC01F9C335}"/>
+    <hyperlink ref="B292" r:id="rId268" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-datasync-agent.html" xr:uid="{4ACAA979-0B4C-4FDB-92F5-D32D85E492C5}"/>
+    <hyperlink ref="B293" r:id="rId269" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-datasync-locationazureblob.html" xr:uid="{29FACA53-223E-4A95-9E2E-D2D2ED716BF5}"/>
+    <hyperlink ref="B294" r:id="rId270" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-datasync-locationefs.html" xr:uid="{A60A24E7-76F6-433F-A4DA-AA1989DDE001}"/>
+    <hyperlink ref="B295" r:id="rId271" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-datasync-locationfsxlustre.html" xr:uid="{12933FDB-31FE-467D-A93F-1FA586F56146}"/>
+    <hyperlink ref="B296" r:id="rId272" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-datasync-locationfsxontap.html" xr:uid="{32431311-1B06-4C43-BF39-1B8534147EE9}"/>
+    <hyperlink ref="B297" r:id="rId273" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-datasync-locationfsxopenzfs.html" xr:uid="{04DAC32A-8246-4D57-A6F5-FC1AF5FDBD72}"/>
+    <hyperlink ref="B298" r:id="rId274" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-datasync-locationfsxwindows.html" xr:uid="{17AD08D0-8272-4107-9B30-A6C44577E859}"/>
+    <hyperlink ref="B299" r:id="rId275" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-datasync-locationhdfs.html" xr:uid="{4075B8EB-1603-49B9-9956-03AAA6741ABE}"/>
+    <hyperlink ref="B300" r:id="rId276" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-datasync-locationnfs.html" xr:uid="{2392A2EF-1A85-4C66-BF14-BA9BC1583D4C}"/>
+    <hyperlink ref="B301" r:id="rId277" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-datasync-locationobjectstorage.html" xr:uid="{AC5B0F4B-4896-470B-B1F7-4B75BF17FE81}"/>
+    <hyperlink ref="B302" r:id="rId278" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-datasync-locations3.html" xr:uid="{97EB32CD-A36F-4E3F-B10D-C374DBAA24DB}"/>
+    <hyperlink ref="B303" r:id="rId279" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-datasync-locationsmb.html" xr:uid="{83AC6F50-FB1D-45AA-A1FE-15961755D11A}"/>
+    <hyperlink ref="B304" r:id="rId280" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-datasync-storagesystem.html" xr:uid="{51B21E1F-F07E-4F26-A073-CED7FFBCFF44}"/>
+    <hyperlink ref="B305" r:id="rId281" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-datasync-task.html" xr:uid="{1B7CE4DC-89C1-49FB-802A-F5EA26823B6C}"/>
+    <hyperlink ref="B307" r:id="rId282" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-directoryservice-microsoftad.html" xr:uid="{C2A236FE-9D71-45A1-BB7C-F72456E9A54A}"/>
+    <hyperlink ref="B308" r:id="rId283" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-directoryservice-simplead.html" xr:uid="{A599DCFE-5240-4FF3-87A5-6A9FFE999EA5}"/>
+    <hyperlink ref="B310" r:id="rId284" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-dms-certificate.html" xr:uid="{995B7BAE-F80D-4118-8A7B-1BBA57630D97}"/>
+    <hyperlink ref="B311" r:id="rId285" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-dms-endpoint.html" xr:uid="{C8C3B4D8-694F-44B2-A4BE-A6A2D2FE2F8D}"/>
+    <hyperlink ref="B312" r:id="rId286" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-dms-eventsubscription.html" xr:uid="{62308181-56A9-4995-942A-90D21F424768}"/>
+    <hyperlink ref="B313" r:id="rId287" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-dms-replicationconfig.html" xr:uid="{73A250CB-7188-4F88-A66A-22C2966F6091}"/>
+    <hyperlink ref="B314" r:id="rId288" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-dms-replicationinstance.html" xr:uid="{64684275-06B2-406C-8DBA-E04BFEC4E3BF}"/>
+    <hyperlink ref="B315" r:id="rId289" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-dms-replicationsubnetgroup.html" xr:uid="{0E26C6A2-2FCB-4DFF-BD13-620C0CC443F1}"/>
+    <hyperlink ref="B316" r:id="rId290" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-dms-replicationtask.html" xr:uid="{CB9E887D-9478-49DC-81F3-D4F7D80A2F0D}"/>
+    <hyperlink ref="B318" r:id="rId291" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-dynamodb-globaltable.html" xr:uid="{A0753AA8-BFF7-4BD9-A558-D396E8ABBA29}"/>
+    <hyperlink ref="B319" r:id="rId292" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-dynamodb-table.html" xr:uid="{C417D4B3-D1DF-49C0-B9FD-112D010641F8}"/>
+    <hyperlink ref="B321" r:id="rId293" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-autoscaling-autoscalinggroup.html" xr:uid="{2282ACC9-72D0-48A7-9667-12717C4ED951}"/>
+    <hyperlink ref="B322" r:id="rId294" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-autoscaling-launchconfiguration.html" xr:uid="{7D25782F-49E9-4825-A8CB-B04E6C1C231E}"/>
+    <hyperlink ref="B323" r:id="rId295" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-autoscaling-lifecyclehook.html" xr:uid="{405B654D-0B70-4250-B7BB-97CF1A9C358F}"/>
+    <hyperlink ref="B324" r:id="rId296" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-autoscaling-scalingpolicy.html" xr:uid="{D568DC4E-A2E6-48AC-85DF-675D5006FDD5}"/>
+    <hyperlink ref="B325" r:id="rId297" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-autoscaling-scheduledaction.html" xr:uid="{2D4AD81A-1457-482B-A36D-C6BF9A13B4CA}"/>
+    <hyperlink ref="B326" r:id="rId298" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-autoscaling-warmpool.html" xr:uid="{50711421-793B-4059-B71C-C4948F4CBB2E}"/>
+    <hyperlink ref="B328" r:id="rId299" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ecr-publicrepository.html" xr:uid="{255C9393-7CB5-4528-BC31-96214C7DC2DA}"/>
+    <hyperlink ref="B329" r:id="rId300" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ecr-pullthroughcacherule.html" xr:uid="{21AE6B52-C019-4B21-B5B0-ED58CA0CAE19}"/>
+    <hyperlink ref="B330" r:id="rId301" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ecr-registrypolicy.html" xr:uid="{6F50A5B2-C6F0-4DA9-9950-F5ADF5D29501}"/>
+    <hyperlink ref="B331" r:id="rId302" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ecr-replicationconfiguration.html" xr:uid="{C51CE8FC-7DE6-41C2-88DA-AC1C4B2113A3}"/>
+    <hyperlink ref="B332" r:id="rId303" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ecr-repository.html" xr:uid="{7C90C56D-A490-42D2-93A4-09307571557C}"/>
+    <hyperlink ref="B334" r:id="rId304" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ecs-capacityprovider.html" xr:uid="{0DBA4C72-9F44-4B80-BCB2-DB7DAD93A19E}"/>
+    <hyperlink ref="B335" r:id="rId305" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ecs-cluster.html" xr:uid="{3D25022D-5706-4A6E-9153-BCB68A002339}"/>
+    <hyperlink ref="B336" r:id="rId306" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ecs-clustercapacityproviderassociations.html" xr:uid="{4F46C664-8980-4B6E-928C-B10322C333C9}"/>
+    <hyperlink ref="B337" r:id="rId307" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ecs-primarytaskset.html" xr:uid="{BFA80747-A301-4464-A287-253F9D5F1E43}"/>
+    <hyperlink ref="B338" r:id="rId308" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ecs-service.html" xr:uid="{C3A36B54-C6A3-48FE-8DEA-16A809220753}"/>
+    <hyperlink ref="B339" r:id="rId309" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ecs-taskdefinition.html" xr:uid="{E6B09ED4-AEB6-49BA-9169-EED8CC6EBDCA}"/>
+    <hyperlink ref="B340" r:id="rId310" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ecs-taskset.html" xr:uid="{89DD5A18-F8DB-4449-8226-3DDBD28FD9DA}"/>
+    <hyperlink ref="B342" r:id="rId311" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-efs-accesspoint.html" xr:uid="{05AAEAFA-D2CE-49DA-8EC6-38193835C42B}"/>
+    <hyperlink ref="B343" r:id="rId312" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-efs-filesystem.html" xr:uid="{8EBBC598-9A6F-423E-A32C-9CAE462BD4E6}"/>
+    <hyperlink ref="B344" r:id="rId313" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-efs-mounttarget.html" xr:uid="{747E412A-1DEC-47EB-9C8A-8FEF9361A53B}"/>
+    <hyperlink ref="B346" r:id="rId314" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-eks-addon.html" xr:uid="{2C351229-0274-485A-93DC-CA14F388D12F}"/>
+    <hyperlink ref="B347" r:id="rId315" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-eks-cluster.html" xr:uid="{5763753C-73E2-4C94-A31F-6179B1C69C0E}"/>
+    <hyperlink ref="B348" r:id="rId316" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-eks-fargateprofile.html" xr:uid="{93D71409-07E8-4477-BA9E-19F11BA0847E}"/>
+    <hyperlink ref="B349" r:id="rId317" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-eks-identityproviderconfig.html" xr:uid="{128A4BDC-23C8-4B85-8247-6DCA724201A3}"/>
+    <hyperlink ref="B350" r:id="rId318" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-eks-nodegroup.html" xr:uid="{97EB8BAE-3B5A-46A5-8144-B632C47AAF08}"/>
+    <hyperlink ref="B352" r:id="rId319" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticbeanstalk-application.html" xr:uid="{4AA45035-5D45-4E4E-8410-120EBD86BA56}"/>
+    <hyperlink ref="B353" r:id="rId320" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticbeanstalk-applicationversion.html" xr:uid="{73ADEFFC-DD16-4C3B-BAC2-FCBBEF7CBFE1}"/>
+    <hyperlink ref="B354" r:id="rId321" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticbeanstalk-configurationtemplate.html" xr:uid="{DE9B910E-A12F-4AA3-AEDB-905DB793477B}"/>
+    <hyperlink ref="B355" r:id="rId322" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticbeanstalk-environment.html" xr:uid="{631E71A0-D087-46BB-BFA9-D383F863FCA9}"/>
+    <hyperlink ref="B357" r:id="rId323" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticloadbalancing-loadbalancer.html" xr:uid="{B17B05E6-E9EA-4DC8-9FCB-9CE2CFF8090F}"/>
+    <hyperlink ref="B358" r:id="rId324" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticloadbalancingv2-listener.html" xr:uid="{970FEF86-EFB0-495E-9891-7EB9C575F25F}"/>
+    <hyperlink ref="B359" r:id="rId325" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticloadbalancingv2-listenercertificate.html" xr:uid="{F54CCE51-77D6-4DEB-BAEB-DC75BA460522}"/>
+    <hyperlink ref="B360" r:id="rId326" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticloadbalancingv2-listenerrule.html" xr:uid="{7C025829-0CF7-46CA-9EDD-7FF197985B22}"/>
+    <hyperlink ref="B361" r:id="rId327" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticloadbalancingv2-loadbalancer.html" xr:uid="{9AAD6806-33BE-4011-94ED-CE1167BCE28B}"/>
+    <hyperlink ref="B362" r:id="rId328" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticloadbalancingv2-targetgroup.html" xr:uid="{26945415-620B-4367-87FE-BCA330D617EC}"/>
+    <hyperlink ref="B364" r:id="rId329" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-emr-cluster.html" xr:uid="{1A9C053E-E05E-40DF-BD06-48998059E2E1}"/>
+    <hyperlink ref="B365" r:id="rId330" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-emr-instancefleetconfig.html" xr:uid="{B0E8AA95-A9B3-48C3-BDB8-E49EA48A4D66}"/>
+    <hyperlink ref="B366" r:id="rId331" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-emr-instancegroupconfig.html" xr:uid="{1D0E145A-4BD2-4297-BA96-09D7A34BAD1A}"/>
+    <hyperlink ref="B367" r:id="rId332" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-emr-securityconfiguration.html" xr:uid="{8A114835-44C1-411F-851E-D84A2A4EBCFD}"/>
+    <hyperlink ref="B368" r:id="rId333" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-emr-step.html" xr:uid="{2B34D10C-8A52-40BE-AC47-224F19965007}"/>
+    <hyperlink ref="B369" r:id="rId334" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-emr-studio.html" xr:uid="{E5AFC7D1-49DF-4BAD-92C5-AD19640C2722}"/>
+    <hyperlink ref="B370" r:id="rId335" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-emr-studiosessionmapping.html" xr:uid="{42499C33-6456-467C-B0BB-97DDF2D6572C}"/>
+    <hyperlink ref="B371" r:id="rId336" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-emr-walworkspace.html" xr:uid="{B0967D24-23D7-425F-B8A2-E508FB5BE5DD}"/>
+    <hyperlink ref="B373" r:id="rId337" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-emrserverless-application.html" xr:uid="{6DEE657A-7FC1-4607-ACC6-D2AE1D94C3BF}"/>
+    <hyperlink ref="B374" r:id="rId338" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-emrcontainers-virtualcluster.html" xr:uid="{EF7B4691-C676-412A-8C06-A87BA20231C1}"/>
+    <hyperlink ref="B376" r:id="rId339" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticache-cachecluster.html" xr:uid="{4AAF1711-246D-4782-85CA-60C7E580E1C3}"/>
+    <hyperlink ref="B377" r:id="rId340" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticache-globalreplicationgroup.html" xr:uid="{63CEBE75-7D97-496F-9EAC-46D1AAF27927}"/>
+    <hyperlink ref="B378" r:id="rId341" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticache-parametergroup.html" xr:uid="{6E1A92CC-2358-4F9E-BCC9-846B25EAA8B5}"/>
+    <hyperlink ref="B379" r:id="rId342" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticache-replicationgroup.html" xr:uid="{1E13C109-973A-45B4-854E-2FE3A186F160}"/>
+    <hyperlink ref="B380" r:id="rId343" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticache-securitygroup.html" xr:uid="{001185C0-484E-4B30-9C37-F6C048575BF1}"/>
+    <hyperlink ref="B381" r:id="rId344" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticache-securitygroupingress.html" xr:uid="{53A48CC1-B18A-4CAA-8A62-5A54F5060F82}"/>
+    <hyperlink ref="B382" r:id="rId345" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticache-subnetgroup.html" xr:uid="{F3CFA65C-BE9F-465C-A726-F6D8F4B79875}"/>
+    <hyperlink ref="B383" r:id="rId346" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticache-user.html" xr:uid="{6A9BC863-9339-4D9B-BE14-9657BEBB699C}"/>
+    <hyperlink ref="B384" r:id="rId347" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-elasticache-usergroup.html" xr:uid="{E20AE214-9769-4482-A753-8ACF0ACEECDF}"/>
+    <hyperlink ref="B386" r:id="rId348" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-entityresolution-idmappingworkflow.html" xr:uid="{761BD44D-8165-48AE-8CDD-8906310B6916}"/>
+    <hyperlink ref="B387" r:id="rId349" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-entityresolution-matchingworkflow.html" xr:uid="{BA34ECDC-A11A-4D85-A1B7-4CEDEA773F27}"/>
+    <hyperlink ref="B388" r:id="rId350" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-entityresolution-schemamapping.html" xr:uid="{25CFC58C-C78D-44E5-AA5E-EAEA87613491}"/>
+    <hyperlink ref="B390" r:id="rId351" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-events-apidestination.html" xr:uid="{16DBDC51-B4DA-4AFD-B165-3E652A56F391}"/>
+    <hyperlink ref="B391" r:id="rId352" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-events-archive.html" xr:uid="{F8E4B4E8-8BCB-4A0D-A1A5-535FBADDD09E}"/>
+    <hyperlink ref="B392" r:id="rId353" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-events-connection.html" xr:uid="{9F009E15-71D6-4BA7-953D-168EF0B86946}"/>
+    <hyperlink ref="B393" r:id="rId354" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-events-endpoint.html" xr:uid="{AAC7B02B-4B5E-4A32-BC67-D3C226E3EAC1}"/>
+    <hyperlink ref="B394" r:id="rId355" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-events-eventbus.html" xr:uid="{18275210-BAC2-4F51-AE39-345FA08DFAE9}"/>
+    <hyperlink ref="B395" r:id="rId356" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-events-eventbuspolicy.html" xr:uid="{2F16792C-C5FC-49F8-9792-C0CC2B6E3D2C}"/>
+    <hyperlink ref="B396" r:id="rId357" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-events-rule.html" xr:uid="{E1416EC5-CE90-4482-A52B-571587FB8A8F}"/>
+    <hyperlink ref="B398" r:id="rId358" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-pipes-pipe.html" xr:uid="{2F1C0DC3-B138-4510-B453-7903302D8F11}"/>
+    <hyperlink ref="B399" r:id="rId359" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-scheduler-schedule.html" xr:uid="{13777496-FF51-4E72-BC90-9D324A724DFC}"/>
+    <hyperlink ref="B400" r:id="rId360" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-scheduler-schedulegroup.html" xr:uid="{B888F336-EC62-4182-83F0-9F6D9895ABF1}"/>
+    <hyperlink ref="B401" r:id="rId361" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-eventschemas-discoverer.html" xr:uid="{E87DF076-3363-431A-A0A4-A4CDBFA51096}"/>
+    <hyperlink ref="B402" r:id="rId362" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-eventschemas-registry.html" xr:uid="{8822971C-290E-4FBD-B690-45D6F510C092}"/>
+    <hyperlink ref="B403" r:id="rId363" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-eventschemas-registrypolicy.html" xr:uid="{2F489076-3247-49E6-BE6E-005E5AE3D842}"/>
+    <hyperlink ref="B404" r:id="rId364" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-eventschemas-schema.html" xr:uid="{6E63968E-AA83-44B5-9A20-127A896EE014}"/>
+    <hyperlink ref="B406" r:id="rId365" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-evidently-experiment.html" xr:uid="{DE210D8D-B456-429C-AEAE-85179C365E56}"/>
+    <hyperlink ref="B407" r:id="rId366" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-evidently-feature.html" xr:uid="{95564F10-2895-4E41-A060-F244648891EE}"/>
+    <hyperlink ref="B408" r:id="rId367" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-evidently-launch.html" xr:uid="{0F34AA81-F3CC-423E-930A-A08A0E4086EB}"/>
+    <hyperlink ref="B409" r:id="rId368" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-evidently-project.html" xr:uid="{A3F42911-3E9F-4C91-A1DF-57C2B40ED4F4}"/>
+    <hyperlink ref="B410" r:id="rId369" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-evidently-segment.html" xr:uid="{D12CAA8D-554B-4C54-A5BD-45C417487619}"/>
+    <hyperlink ref="B412" r:id="rId370" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-fms-notificationchannel.html" xr:uid="{394EF7D3-CE0D-4838-BE8B-A0C7D327C034}"/>
+    <hyperlink ref="B413" r:id="rId371" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-fms-policy.html" xr:uid="{D5A180F8-D122-421E-ADCD-3841C1894CC6}"/>
+    <hyperlink ref="B414" r:id="rId372" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-fms-resourceset.html" xr:uid="{33ACDC4E-2AD7-48E8-AD14-E3D5C3C0DD56}"/>
+    <hyperlink ref="B416" r:id="rId373" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-iam-accesskey.html" xr:uid="{0D362FC0-3050-4F4E-B379-97B83F5A7BE0}"/>
+    <hyperlink ref="B417" r:id="rId374" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-iam-group.html" xr:uid="{39A48628-4A64-4863-B5D1-0490F1505926}"/>
+    <hyperlink ref="B418" r:id="rId375" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-iam-grouppolicy.html" xr:uid="{0FF5B92C-DC90-4D13-B441-6F4B5FA0AFB4}"/>
+    <hyperlink ref="B419" r:id="rId376" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-iam-instanceprofile.html" xr:uid="{73ED4D08-2BAD-4729-A257-C2616CFD6E8F}"/>
+    <hyperlink ref="B420" r:id="rId377" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-iam-managedpolicy.html" xr:uid="{EA92D784-6E8A-4C45-A2CB-A93EF4926EFE}"/>
+    <hyperlink ref="B421" r:id="rId378" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-iam-oidcprovider.html" xr:uid="{1AB5CA43-9B6C-4AEF-A740-074BCB6658CA}"/>
+    <hyperlink ref="B422" r:id="rId379" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-iam-policy.html" xr:uid="{E82B546A-3A10-4D22-B1F3-FD9AE94C4520}"/>
+    <hyperlink ref="B423" r:id="rId380" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-iam-role.html" xr:uid="{E48BFD33-109B-4B94-BCE1-855886A81C36}"/>
+    <hyperlink ref="B424" r:id="rId381" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-iam-rolepolicy.html" xr:uid="{287F0CAE-A7AA-424F-B8FF-AC910645BF90}"/>
+    <hyperlink ref="B425" r:id="rId382" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-iam-samlprovider.html" xr:uid="{58144E5D-BAAB-48B5-A615-A08D6C35F625}"/>
+    <hyperlink ref="B426" r:id="rId383" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-iam-servercertificate.html" xr:uid="{C85CEA04-F08A-41B4-9041-B29482574A78}"/>
+    <hyperlink ref="B427" r:id="rId384" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-iam-servicelinkedrole.html" xr:uid="{BADC97CF-4442-48EA-A200-9C8C069B57A3}"/>
+    <hyperlink ref="B428" r:id="rId385" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-iam-user.html" xr:uid="{50630FCC-FCCE-44EF-9530-68330E541117}"/>
+    <hyperlink ref="B429" r:id="rId386" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-iam-userpolicy.html" xr:uid="{51EC99C8-6564-49F7-A741-6D75C4CB2F0E}"/>
+    <hyperlink ref="B430" r:id="rId387" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-iam-usertogroupaddition.html" xr:uid="{51580A40-FC7A-4CF2-A158-79A9C0F189F8}"/>
+    <hyperlink ref="B431" r:id="rId388" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-iam-virtualmfadevice.html" xr:uid="{6D5DB8E7-D96E-4366-8652-41F7752917F1}"/>
+    <hyperlink ref="B433" r:id="rId389" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-identitystore-group.html" xr:uid="{16A8F21B-29A9-4796-A144-938AE76D25BB}"/>
+    <hyperlink ref="B434" r:id="rId390" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-identitystore-groupmembership.html" xr:uid="{AEE8243A-8F49-40AA-A8BD-5990142230EA}"/>
+    <hyperlink ref="B435" r:id="rId391" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-accessanalyzer-analyzer.html" xr:uid="{0772396F-0A66-45D2-907B-EB847C08B829}"/>
+    <hyperlink ref="B437" r:id="rId392" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-imagebuilder-component.html" xr:uid="{53D2D7FC-2D17-488D-83F4-05AC9EFD2724}"/>
+    <hyperlink ref="B438" r:id="rId393" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-imagebuilder-containerrecipe.html" xr:uid="{F83FAFD6-940D-4C67-99DD-9CA9117D564B}"/>
+    <hyperlink ref="B439" r:id="rId394" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-imagebuilder-distributionconfiguration.html" xr:uid="{E53A61CD-0D08-4326-90C2-EF896F79FCB2}"/>
+    <hyperlink ref="B440" r:id="rId395" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-imagebuilder-image.html" xr:uid="{63EE2D70-0EEA-4392-909E-8233489914D5}"/>
+    <hyperlink ref="B441" r:id="rId396" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-imagebuilder-imagepipeline.html" xr:uid="{1461C7AE-02DF-43F6-BC7E-934D33CB88F8}"/>
+    <hyperlink ref="B442" r:id="rId397" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-imagebuilder-imagerecipe.html" xr:uid="{8C66B76C-64DD-4350-96B6-42CAB67A7877}"/>
+    <hyperlink ref="B443" r:id="rId398" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-imagebuilder-infrastructureconfiguration.html" xr:uid="{33F8FC04-0AC1-472A-B77F-8426C0C88614}"/>
+    <hyperlink ref="B445" r:id="rId399" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-kms-alias.html" xr:uid="{0BDA3E03-0769-4728-8165-1390CBF1376E}"/>
+    <hyperlink ref="B446" r:id="rId400" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-kms-key.html" xr:uid="{EC90167A-4081-4464-AF13-D6D30871FC1D}"/>
+    <hyperlink ref="B447" r:id="rId401" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-kms-replicakey.html" xr:uid="{A7690B25-B051-46A9-81EB-B43A6FB0CA43}"/>
+    <hyperlink ref="B449" r:id="rId402" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-lambda-alias.html" xr:uid="{5632A0EB-B9B8-441B-9F3B-611723BAA5BE}"/>
+    <hyperlink ref="B450" r:id="rId403" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-lambda-codesigningconfig.html" xr:uid="{1B4B3DD3-355C-44AD-B98D-837FFA7A611A}"/>
+    <hyperlink ref="B451" r:id="rId404" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-lambda-eventinvokeconfig.html" xr:uid="{C2B8D389-B75C-45BE-B9A5-9E1035BDEF53}"/>
+    <hyperlink ref="B452" r:id="rId405" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-lambda-eventsourcemapping.html" xr:uid="{C8B67F8B-2381-453D-946C-F9F3A96C70CD}"/>
+    <hyperlink ref="B453" r:id="rId406" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-lambda-function.html" xr:uid="{EF396E47-6C17-4489-A007-1780764CF097}"/>
+    <hyperlink ref="B454" r:id="rId407" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-lambda-layerversion.html" xr:uid="{B39E8A86-1FA3-498C-9330-2641FAEF2E87}"/>
+    <hyperlink ref="B455" r:id="rId408" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-lambda-layerversionpermission.html" xr:uid="{DE12D0BB-12FC-4C15-AFDE-E2B8A273DD0A}"/>
+    <hyperlink ref="B456" r:id="rId409" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-lambda-permission.html" xr:uid="{9A08B6DD-D670-4460-8A35-A959F2521EC3}"/>
+    <hyperlink ref="B457" r:id="rId410" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-lambda-url.html" xr:uid="{67B84411-5964-4A89-90B6-5E5442212EBA}"/>
+    <hyperlink ref="B458" r:id="rId411" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-lambda-version.html" xr:uid="{82724E81-D9C2-4178-B8B9-E18067FDCAE2}"/>
+    <hyperlink ref="B460" r:id="rId412" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-location-geofencecollection.html" xr:uid="{5521FD4A-B4D5-4D88-B006-6477701527A2}"/>
+    <hyperlink ref="B461" r:id="rId413" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-location-map.html" xr:uid="{CAC12602-0B70-4F60-A779-2B2E78F22B45}"/>
+    <hyperlink ref="B462" r:id="rId414" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-location-placeindex.html" xr:uid="{78372EA4-777A-4D70-8B21-30034D323717}"/>
+    <hyperlink ref="B463" r:id="rId415" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-location-routecalculator.html" xr:uid="{8CB130AE-A4AC-443B-85E5-9F1582030AF6}"/>
+    <hyperlink ref="B464" r:id="rId416" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-location-tracker.html" xr:uid="{63AD5182-1414-4454-B05B-E005CBD1185D}"/>
+    <hyperlink ref="B465" r:id="rId417" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-location-trackerconsumer.html" xr:uid="{DA6FB777-6607-49F8-A81F-171FCF18BA95}"/>
+    <hyperlink ref="B467" r:id="rId418" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediaconnect-bridge.html" xr:uid="{5C62E343-F0A6-4CCB-B3BC-95F4146A75E0}"/>
+    <hyperlink ref="B468" r:id="rId419" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediaconnect-bridgeoutput.html" xr:uid="{3B59AC14-6FD9-4811-B41F-B5C3147634ED}"/>
+    <hyperlink ref="B469" r:id="rId420" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediaconnect-bridgesource.html" xr:uid="{5E349E0E-0B05-4042-8677-EECAE08FEDAD}"/>
+    <hyperlink ref="B470" r:id="rId421" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediaconnect-flow.html" xr:uid="{2109B7A7-B375-4F0C-BF7F-3582FA029EC6}"/>
+    <hyperlink ref="B471" r:id="rId422" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediaconnect-flowentitlement.html" xr:uid="{364AD977-A014-4B8E-93FB-A4D835B89339}"/>
+    <hyperlink ref="B472" r:id="rId423" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediaconnect-flowoutput.html" xr:uid="{F7A259E3-6B91-4E8B-91E0-764DA8F364DA}"/>
+    <hyperlink ref="B473" r:id="rId424" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediaconnect-flowsource.html" xr:uid="{735F1CA8-FD8A-4652-BF6E-0A138588A618}"/>
+    <hyperlink ref="B474" r:id="rId425" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediaconnect-flowvpcinterface.html" xr:uid="{E714E5EC-D010-4F14-A599-6EE773F5CC31}"/>
+    <hyperlink ref="B475" r:id="rId426" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediaconnect-gateway.html" xr:uid="{D764B295-7939-46EF-8435-E4AE96613110}"/>
+    <hyperlink ref="B477" r:id="rId427" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediaconvert-jobtemplate.html" xr:uid="{DAFDC0AF-C92A-48DB-9DDB-73E64B894FDE}"/>
+    <hyperlink ref="B478" r:id="rId428" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediaconvert-preset.html" xr:uid="{1054E2B4-2119-48AF-AB13-E91749AD8B8A}"/>
+    <hyperlink ref="B479" r:id="rId429" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediaconvert-queue.html" xr:uid="{8679DBCA-6E71-410C-83CE-AC0260B1C33A}"/>
+    <hyperlink ref="B481" r:id="rId430" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-medialive-channel.html" xr:uid="{51EE018B-51E6-4D86-AE3F-534437A46E04}"/>
+    <hyperlink ref="B482" r:id="rId431" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-medialive-input.html" xr:uid="{7CD6A18B-6328-472C-B6DB-53B461841CF6}"/>
+    <hyperlink ref="B483" r:id="rId432" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-medialive-inputsecuritygroup.html" xr:uid="{1FBFD978-F9AB-4E11-9046-21FEC1D8EB2A}"/>
+    <hyperlink ref="B484" r:id="rId433" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-medialive-multiplex.html" xr:uid="{E5255337-6E91-4956-8647-D42FB0FAE014}"/>
+    <hyperlink ref="B485" r:id="rId434" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-medialive-multiplexprogram.html" xr:uid="{188B3E28-439E-4942-B3F6-38305FAF5069}"/>
+    <hyperlink ref="B487" r:id="rId435" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediapackage-asset.html" xr:uid="{A4908F81-E07A-420E-B3C5-933E437867F8}"/>
+    <hyperlink ref="B488" r:id="rId436" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediapackage-channel.html" xr:uid="{A97FA2C4-4CE4-45DF-920E-D3A922081EE1}"/>
+    <hyperlink ref="B489" r:id="rId437" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediapackage-originendpoint.html" xr:uid="{23989FCC-DE65-4AE6-8339-4813EB1B880D}"/>
+    <hyperlink ref="B490" r:id="rId438" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediapackage-packagingconfiguration.html" xr:uid="{4A22DB9A-585E-4BD9-820B-9CB466936388}"/>
+    <hyperlink ref="B491" r:id="rId439" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediapackage-packaginggroup.html" xr:uid="{438D786B-5A38-4198-93F3-9064244EBB35}"/>
+    <hyperlink ref="B493" r:id="rId440" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediapackagev2-channel.html" xr:uid="{26A93711-3020-4D30-B992-C18A04F79AED}"/>
+    <hyperlink ref="B494" r:id="rId441" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediapackagev2-channelgroup.html" xr:uid="{8B3CC30B-7378-4173-81DA-E466A51F9353}"/>
+    <hyperlink ref="B495" r:id="rId442" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediapackagev2-channelpolicy.html" xr:uid="{EE9223ED-6B27-4606-8FF6-2BC0DA7B70DE}"/>
+    <hyperlink ref="B496" r:id="rId443" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediapackagev2-originendpoint.html" xr:uid="{AAD7A598-6269-4B63-80AB-CAD1FD71D9DC}"/>
+    <hyperlink ref="B497" r:id="rId444" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediapackagev2-originendpointpolicy.html" xr:uid="{722E0E97-7E21-41D0-AD9F-79833C8E4682}"/>
+    <hyperlink ref="B499" r:id="rId445" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediatailor-channel.html" xr:uid="{4B95F48F-60D5-4C7C-9D9B-4BC19B01831F}"/>
+    <hyperlink ref="B500" r:id="rId446" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediatailor-channelpolicy.html" xr:uid="{26A9CA58-2102-422C-9229-DBB83577C8B3}"/>
+    <hyperlink ref="B501" r:id="rId447" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediatailor-livesource.html" xr:uid="{80202F81-188E-4601-BA83-A748FFEE39BB}"/>
+    <hyperlink ref="B502" r:id="rId448" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediatailor-playbackconfiguration.html" xr:uid="{586B4393-1D75-4497-859F-A27B880A5A63}"/>
+    <hyperlink ref="B503" r:id="rId449" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediatailor-sourcelocation.html" xr:uid="{50BB9D3F-2AC4-4B6E-9394-1DFB0DAC6B2A}"/>
+    <hyperlink ref="B504" r:id="rId450" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediatailor-vodsource.html" xr:uid="{E77FB674-65C0-43AE-A595-B12963CB6209}"/>
+    <hyperlink ref="B506" r:id="rId451" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-mediastore-container.html" xr:uid="{9FF8509E-45CB-40CA-8A78-C9430335D44E}"/>
+    <hyperlink ref="B507" r:id="rId452" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-amazonmq-broker.html" xr:uid="{095D6417-C73E-4738-85B7-DD6372C31420}"/>
+    <hyperlink ref="B508" r:id="rId453" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-amazonmq-configuration.html" xr:uid="{7A335F4B-CE28-4194-945A-87A8CE40791E}"/>
+    <hyperlink ref="B509" r:id="rId454" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-amazonmq-configurationassociation.html" xr:uid="{006D5B3B-B10F-4EA3-829E-9730658CDF10}"/>
+    <hyperlink ref="B511" r:id="rId455" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-memorydb-acl.html" xr:uid="{2878BDCC-7E07-4266-BDD9-F94912547968}"/>
+    <hyperlink ref="B512" r:id="rId456" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-memorydb-cluster.html" xr:uid="{6343A569-0382-478B-8330-7C7A221780D1}"/>
+    <hyperlink ref="B513" r:id="rId457" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-memorydb-parametergroup.html" xr:uid="{D174E213-E9F4-4FF1-BFFD-C0184F3158EA}"/>
+    <hyperlink ref="B514" r:id="rId458" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-memorydb-subnetgroup.html" xr:uid="{CB30E49B-D8C3-4BC1-8EA5-D1DE6BE644AA}"/>
+    <hyperlink ref="B515" r:id="rId459" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-memorydb-user.html" xr:uid="{B0B923DC-FFF8-4764-85B3-637943CC5A89}"/>
+    <hyperlink ref="B517" r:id="rId460" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-msk-batchscramsecret.html" xr:uid="{0DC8E317-F783-458A-85FB-06949CF6715F}"/>
+    <hyperlink ref="B518" r:id="rId461" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-msk-cluster.html" xr:uid="{C0FA740D-46AE-4A9B-A740-3C5ABE03B78F}"/>
+    <hyperlink ref="B519" r:id="rId462" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-msk-clusterpolicy.html" xr:uid="{FB9A89ED-C0D0-4E9E-B507-6F4B90027619}"/>
+    <hyperlink ref="B520" r:id="rId463" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-msk-configuration.html" xr:uid="{C02C0C8A-8A11-4055-A949-049ED547BEC0}"/>
+    <hyperlink ref="B521" r:id="rId464" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-msk-replicator.html" xr:uid="{A0CD8349-F4B4-43E9-8708-D70680B4C4C0}"/>
+    <hyperlink ref="B522" r:id="rId465" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-msk-serverlesscluster.html" xr:uid="{449A457D-225C-48DB-ADD3-B0558291F654}"/>
+    <hyperlink ref="B523" r:id="rId466" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-msk-vpcconnection.html" xr:uid="{07A3B35A-6B0C-4821-AE50-BEF52161CCF6}"/>
+    <hyperlink ref="B525" r:id="rId467" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkfirewall-firewall.html" xr:uid="{750D89E6-17F7-4A53-A03B-D608AAA5EA25}"/>
+    <hyperlink ref="B526" r:id="rId468" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkfirewall-firewallpolicy.html" xr:uid="{D7592B20-F1AE-4D6D-BB66-BE663AC328B2}"/>
+    <hyperlink ref="B527" r:id="rId469" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkfirewall-loggingconfiguration.html" xr:uid="{2FFC9112-C668-4327-B721-AA8B975B0A3F}"/>
+    <hyperlink ref="B528" r:id="rId470" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkfirewall-rulegroup.html" xr:uid="{C050E100-2ACC-4F71-B527-150D24B21A54}"/>
+    <hyperlink ref="B530" r:id="rId471" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkmanager-connectattachment.html" xr:uid="{B68943EC-881A-470F-8E1E-6F90970A11F7}"/>
+    <hyperlink ref="B531" r:id="rId472" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkmanager-connectpeer.html" xr:uid="{1348DFE5-9A5B-421B-B8C0-1578021A838C}"/>
+    <hyperlink ref="B532" r:id="rId473" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkmanager-corenetwork.html" xr:uid="{94A5E9A3-6D05-4D9C-9E2A-D4DEB084CAE4}"/>
+    <hyperlink ref="B533" r:id="rId474" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkmanager-customergatewayassociation.html" xr:uid="{AAEDDE95-AC7A-441A-876B-6471C2473DDC}"/>
+    <hyperlink ref="B534" r:id="rId475" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkmanager-device.html" xr:uid="{D85E774E-70C1-47E7-AC11-2AEA8BF840A7}"/>
+    <hyperlink ref="B535" r:id="rId476" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkmanager-globalnetwork.html" xr:uid="{CB02BCD2-C435-4159-9878-A8B972DA54CC}"/>
+    <hyperlink ref="B536" r:id="rId477" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkmanager-link.html" xr:uid="{1D0B8955-EF6C-47B5-B7B5-6265947C1929}"/>
+    <hyperlink ref="B537" r:id="rId478" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkmanager-linkassociation.html" xr:uid="{C69C8958-C25E-4D96-BA5F-6342D9DBE707}"/>
+    <hyperlink ref="B538" r:id="rId479" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkmanager-site.html" xr:uid="{CD029748-37EB-47AC-ACA7-FB35AF5DFD95}"/>
+    <hyperlink ref="B539" r:id="rId480" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkmanager-sitetositevpnattachment.html" xr:uid="{292AC118-0EA9-4FF5-A580-EDBF834A795E}"/>
+    <hyperlink ref="B540" r:id="rId481" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkmanager-transitgatewaypeering.html" xr:uid="{BFAD713B-0609-48A1-9EB6-42AB8FFB1177}"/>
+    <hyperlink ref="B541" r:id="rId482" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkmanager-transitgatewayregistration.html" xr:uid="{D743B358-CA8D-4ED3-B686-00BC93E932F7}"/>
+    <hyperlink ref="B542" r:id="rId483" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkmanager-transitgatewayroutetableattachment.html" xr:uid="{52F959DE-4AF1-4762-A55F-6524ABE30D48}"/>
+    <hyperlink ref="B543" r:id="rId484" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-networkmanager-vpcattachment.html" xr:uid="{8B63E48B-7747-4EF5-939F-CD7BDFAF725A}"/>
+    <hyperlink ref="B545" r:id="rId485" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-customdbengineversion.html" xr:uid="{BB5F20DB-9A5B-441C-9BFE-BE2D7BA8A333}"/>
+    <hyperlink ref="B546" r:id="rId486" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-dbcluster.html" xr:uid="{6372564F-0286-48AB-A9A6-3030058248F6}"/>
+    <hyperlink ref="B547" r:id="rId487" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-dbclusterparametergroup.html" xr:uid="{25AEF54E-1CB2-417C-A8FC-0BF6505F3753}"/>
+    <hyperlink ref="B548" r:id="rId488" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-dbinstance.html" xr:uid="{EEDA6116-71F0-45CA-8D3C-372B9AF5DD4D}"/>
+    <hyperlink ref="B549" r:id="rId489" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-dbparametergroup.html" xr:uid="{0CB2E55A-5866-45DE-908F-778D692BAB12}"/>
+    <hyperlink ref="B550" r:id="rId490" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-dbproxy.html" xr:uid="{1D8CC8F4-E13F-4F66-9C9D-128FF0DD6150}"/>
+    <hyperlink ref="B551" r:id="rId491" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-dbproxyendpoint.html" xr:uid="{22804973-D0CD-402B-9CBA-065CA546232B}"/>
+    <hyperlink ref="B552" r:id="rId492" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-dbproxytargetgroup.html" xr:uid="{ABEBD774-5B0F-434A-80DE-80BC55DC3EAA}"/>
+    <hyperlink ref="B553" r:id="rId493" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-dbsecuritygroup.html" xr:uid="{C9C443C8-44DD-45C9-884B-A15271056F3A}"/>
+    <hyperlink ref="B554" r:id="rId494" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-dbsecuritygroupingress.html" xr:uid="{2F90EABD-EC70-46B7-9E74-F7FD71AD1274}"/>
+    <hyperlink ref="B555" r:id="rId495" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-dbsubnetgroup.html" xr:uid="{FDC46AC1-71A2-4824-BEBC-7ECCF037589E}"/>
+    <hyperlink ref="B556" r:id="rId496" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-eventsubscription.html" xr:uid="{903546B5-BC37-4936-B16B-AFA733B1353D}"/>
+    <hyperlink ref="B557" r:id="rId497" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-globalcluster.html" xr:uid="{F74F6BA0-031A-48F2-A13F-D19D807AD242}"/>
+    <hyperlink ref="B558" r:id="rId498" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rds-optiongroup.html" xr:uid="{05D728D2-076C-41F0-B75C-B9B4795F567A}"/>
+    <hyperlink ref="B560" r:id="rId499" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-refactorspaces-application.html" xr:uid="{A62EF2FD-830C-4A6B-8238-D2FF763B62A0}"/>
+    <hyperlink ref="B561" r:id="rId500" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-refactorspaces-environment.html" xr:uid="{978D2289-70BE-47F3-B8E7-BECE35CCA30D}"/>
+    <hyperlink ref="B562" r:id="rId501" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-refactorspaces-route.html" xr:uid="{FF217E48-7E4A-45B3-A824-F54B69F29C21}"/>
+    <hyperlink ref="B563" r:id="rId502" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-refactorspaces-service.html" xr:uid="{61B6DE70-1E1A-43C8-A21B-20073FC3F166}"/>
+    <hyperlink ref="B565" r:id="rId503" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rolesanywhere-crl.html" xr:uid="{37855B38-AB63-4AB3-B542-4739B96BF7DA}"/>
+    <hyperlink ref="B566" r:id="rId504" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rolesanywhere-profile.html" xr:uid="{9110D58B-DCF3-4446-B669-52813DB669C8}"/>
+    <hyperlink ref="B567" r:id="rId505" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-rolesanywhere-trustanchor.html" xr:uid="{B11A291B-6593-47F8-A9A6-33B47F74BA92}"/>
+    <hyperlink ref="B569" r:id="rId506" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53-cidrcollection.html" xr:uid="{5E8F635F-C556-4B6F-92F2-F20F24E434E5}"/>
+    <hyperlink ref="B570" r:id="rId507" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53-dnssec.html" xr:uid="{90B8F5E5-3AB6-4CA8-8A66-42CC6372ED77}"/>
+    <hyperlink ref="B571" r:id="rId508" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53-healthcheck.html" xr:uid="{2BF65D45-A61B-49E0-8CE2-72B60D8E660A}"/>
+    <hyperlink ref="B572" r:id="rId509" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53-hostedzone.html" xr:uid="{CD276599-FED4-431B-927E-B0AC967B9E53}"/>
+    <hyperlink ref="B573" r:id="rId510" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53-keysigningkey.html" xr:uid="{8236B476-5BC6-4134-BD6E-6594662B9EAD}"/>
+    <hyperlink ref="B574" r:id="rId511" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53-recordset.html" xr:uid="{3F6BEEAE-EF1A-4D36-9B91-F05EC193F053}"/>
+    <hyperlink ref="B575" r:id="rId512" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53-recordsetgroup.html" xr:uid="{B5E1B834-0BCA-4873-AA53-64A5A684631C}"/>
+    <hyperlink ref="B577" r:id="rId513" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53recoverycontrol-cluster.html" xr:uid="{F69367AA-C622-4610-8D3D-935577EF3229}"/>
+    <hyperlink ref="B578" r:id="rId514" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53recoverycontrol-controlpanel.html" xr:uid="{5B4BF21E-8887-45D0-BDF1-B076A79E6D4B}"/>
+    <hyperlink ref="B579" r:id="rId515" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53recoverycontrol-routingcontrol.html" xr:uid="{6D255B3F-4F69-4B00-85B8-499DD2CAB402}"/>
+    <hyperlink ref="B580" r:id="rId516" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53recoverycontrol-safetyrule.html" xr:uid="{1C87F717-07B2-488F-8537-A044B4E82386}"/>
+    <hyperlink ref="B582" r:id="rId517" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53recoveryreadiness-cell.html" xr:uid="{D9458ADF-DC2C-4E31-810E-6C01F0C06736}"/>
+    <hyperlink ref="B583" r:id="rId518" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53recoveryreadiness-readinesscheck.html" xr:uid="{CA953CC0-CF9C-4B53-82A7-4FA3554E99FE}"/>
+    <hyperlink ref="B584" r:id="rId519" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53recoveryreadiness-recoverygroup.html" xr:uid="{9A891D71-4624-4AFE-8D8B-9C2AFEEDAF82}"/>
+    <hyperlink ref="B585" r:id="rId520" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53recoveryreadiness-resourceset.html" xr:uid="{B60AD7C2-5D0E-470B-842E-4C97971F7E9A}"/>
+    <hyperlink ref="B587" r:id="rId521" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53resolver-firewalldomainlist.html" xr:uid="{1418223C-2869-43A1-AFEB-C556E6B6C768}"/>
+    <hyperlink ref="B588" r:id="rId522" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53resolver-firewallrulegroup.html" xr:uid="{199A715C-E046-4158-82E2-D4C0FDB7E9C0}"/>
+    <hyperlink ref="B589" r:id="rId523" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53resolver-firewallrulegroupassociation.html" xr:uid="{9B190AC7-ABBB-481F-9C67-F8AF62BA9341}"/>
+    <hyperlink ref="B590" r:id="rId524" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53resolver-outpostresolver.html" xr:uid="{213DC079-EEA9-4525-B051-F691E163028F}"/>
+    <hyperlink ref="B591" r:id="rId525" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53resolver-resolverconfig.html" xr:uid="{99A06FC9-1241-45DD-97D3-34247455EC4F}"/>
+    <hyperlink ref="B592" r:id="rId526" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53resolver-resolverdnssecconfig.html" xr:uid="{D61D09D8-4469-407A-AE38-369550CE493F}"/>
+    <hyperlink ref="B593" r:id="rId527" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53resolver-resolverendpoint.html" xr:uid="{F6728CAF-31EF-4F79-8210-61A12E38E2E0}"/>
+    <hyperlink ref="B594" r:id="rId528" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53resolver-resolverqueryloggingconfig.html" xr:uid="{BC39F8E9-2304-4392-AC3D-67D16D9F29BB}"/>
+    <hyperlink ref="B595" r:id="rId529" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53resolver-resolverqueryloggingconfigassociation.html" xr:uid="{51626792-8DC7-413C-937D-B597268F5CE1}"/>
+    <hyperlink ref="B596" r:id="rId530" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53resolver-resolverrule.html" xr:uid="{8A3922F7-0994-4E1E-8A97-212EA6BE4725}"/>
+    <hyperlink ref="B597" r:id="rId531" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-route53resolver-resolverruleassociation.html" xr:uid="{EA8AFFA1-2DC7-481B-AEDF-8BB121856D26}"/>
+    <hyperlink ref="B599" r:id="rId532" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-s3-accesspoint.html" xr:uid="{0F9586A8-C81C-4224-88BC-853F53BC3EFD}"/>
+    <hyperlink ref="B600" r:id="rId533" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-s3-bucket.html" xr:uid="{E04008FA-2135-482F-B08E-E162076F8DE5}"/>
+    <hyperlink ref="B601" r:id="rId534" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-s3-bucketpolicy.html" xr:uid="{5D727A25-5EEF-42FB-936B-318D68542A84}"/>
+    <hyperlink ref="B602" r:id="rId535" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-s3-multiregionaccesspoint.html" xr:uid="{6EB5E7B4-1FEC-473F-A86B-81C3429B0399}"/>
+    <hyperlink ref="B603" r:id="rId536" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-s3-multiregionaccesspointpolicy.html" xr:uid="{BFA3E210-C8D0-4AD3-BAA5-76486F69991C}"/>
+    <hyperlink ref="B604" r:id="rId537" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-s3-storagelens.html" xr:uid="{427C05F3-435E-4EA4-B1D5-DC08A65AED13}"/>
+    <hyperlink ref="B606" r:id="rId538" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-s3objectlambda-accesspoint.html" xr:uid="{0E542DAE-66A6-4117-9266-A32611B8CEA3}"/>
+    <hyperlink ref="B607" r:id="rId539" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-s3objectlambda-accesspointpolicy.html" xr:uid="{86C273B7-E2E0-4143-BF1C-926C815DF5E8}"/>
+    <hyperlink ref="B609" r:id="rId540" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-s3outposts-accesspoint.html" xr:uid="{915DE03C-88E8-48E6-A38B-FDD51FF3A80E}"/>
+    <hyperlink ref="B610" r:id="rId541" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-s3outposts-bucket.html" xr:uid="{758973CF-26F3-4545-9938-3262E022428A}"/>
+    <hyperlink ref="B611" r:id="rId542" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-s3outposts-bucketpolicy.html" xr:uid="{54D0CD98-D546-4D77-A06F-EF9996CD257B}"/>
+    <hyperlink ref="B612" r:id="rId543" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-s3outposts-endpoint.html" xr:uid="{47734AC4-F659-4C4E-A899-0888AB1D5051}"/>
+    <hyperlink ref="B614" r:id="rId544" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-app.html" xr:uid="{0ADF767B-06FF-465C-8EA4-D69251E1676E}"/>
+    <hyperlink ref="B615" r:id="rId545" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-appimageconfig.html" xr:uid="{51B2E3D6-B3BF-453F-BDB7-23FF84FF0097}"/>
+    <hyperlink ref="B616" r:id="rId546" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-coderepository.html" xr:uid="{FC7C0A4F-9E38-405B-A8D8-9D769832A82E}"/>
+    <hyperlink ref="B617" r:id="rId547" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-dataqualityjobdefinition.html" xr:uid="{71BD3350-037F-4A76-BF40-8A31346564A2}"/>
+    <hyperlink ref="B618" r:id="rId548" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-device.html" xr:uid="{30D0ED20-413B-4DDD-B592-A96DA0C2A82A}"/>
+    <hyperlink ref="B619" r:id="rId549" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-devicefleet.html" xr:uid="{1F02605E-CE37-4CA3-B8E6-835586AECFB8}"/>
+    <hyperlink ref="B620" r:id="rId550" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-domain.html" xr:uid="{99C36D8D-79A8-4B6B-9DEB-A6BE6CB5E5DB}"/>
+    <hyperlink ref="B621" r:id="rId551" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-endpoint.html" xr:uid="{E29242D2-414E-4E83-A52D-2F3C23B0D2FE}"/>
+    <hyperlink ref="B622" r:id="rId552" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-endpointconfig.html" xr:uid="{01934A8B-5B7E-4B4A-8F89-C34E6F988EF5}"/>
+    <hyperlink ref="B623" r:id="rId553" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-featuregroup.html" xr:uid="{9CFFB025-1247-4D4B-B2BB-49E2D30DB356}"/>
+    <hyperlink ref="B624" r:id="rId554" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-image.html" xr:uid="{6082EC2A-C019-4925-A460-1DA142D5CC98}"/>
+    <hyperlink ref="B625" r:id="rId555" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-imageversion.html" xr:uid="{A3FB0EA4-A3BE-46B2-A9AC-54EDE8899E7F}"/>
+    <hyperlink ref="B626" r:id="rId556" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-inferenceexperiment.html" xr:uid="{0C14F93B-3BBD-4565-ACCA-FF53791019A5}"/>
+    <hyperlink ref="B627" r:id="rId557" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-model.html" xr:uid="{3871F75A-87F7-4D84-88CA-706F8F2E4A0A}"/>
+    <hyperlink ref="B628" r:id="rId558" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-modelbiasjobdefinition.html" xr:uid="{856C1946-0D6D-4011-B665-0552553FC8F0}"/>
+    <hyperlink ref="B629" r:id="rId559" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-modelcard.html" xr:uid="{269A3BB5-E714-4BDA-9EB4-214B0C46FA46}"/>
+    <hyperlink ref="B630" r:id="rId560" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-modelexplainabilityjobdefinition.html" xr:uid="{CC58D3D8-42B9-467F-9DD1-92BD44295F2C}"/>
+    <hyperlink ref="B631" r:id="rId561" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-modelpackage.html" xr:uid="{CAE8D124-06F3-4BD5-A5AA-6CF241E4B2F9}"/>
+    <hyperlink ref="B632" r:id="rId562" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-modelpackagegroup.html" xr:uid="{36A6334A-9FB1-46E0-8F61-1E403F3E59B8}"/>
+    <hyperlink ref="B633" r:id="rId563" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-modelqualityjobdefinition.html" xr:uid="{3EA18E41-841A-4770-8E5F-67752726DDDA}"/>
+    <hyperlink ref="B634" r:id="rId564" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-monitoringschedule.html" xr:uid="{AA2F462C-66B6-47C4-B5C3-BFC17C81F430}"/>
+    <hyperlink ref="B635" r:id="rId565" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-notebookinstance.html" xr:uid="{0EB1704E-12EF-4969-A8DA-2B8C457F0512}"/>
+    <hyperlink ref="B636" r:id="rId566" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-notebookinstancelifecycleconfig.html" xr:uid="{0562B269-3690-4896-BC2F-C30D9A88D2D1}"/>
+    <hyperlink ref="B637" r:id="rId567" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-pipeline.html" xr:uid="{12658741-502D-4496-9F26-D0A2EAC83D01}"/>
+    <hyperlink ref="B638" r:id="rId568" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-project.html" xr:uid="{E19BD97A-CC86-42B8-973A-A080997EB769}"/>
+    <hyperlink ref="B639" r:id="rId569" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-space.html" xr:uid="{C3170070-FDD7-4DD6-A4FA-25DFDCD5FE20}"/>
+    <hyperlink ref="B640" r:id="rId570" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-userprofile.html" xr:uid="{F00E652E-A6B2-4229-B7C9-30C7D9D3F6CC}"/>
+    <hyperlink ref="B641" r:id="rId571" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sagemaker-workteam.html" xr:uid="{68867745-2A0C-452F-8E74-4559DC9C7520}"/>
+    <hyperlink ref="B643" r:id="rId572" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-secretsmanager-resourcepolicy.html" xr:uid="{4350DD42-CD27-4E4C-8762-3FC447508EBF}"/>
+    <hyperlink ref="B644" r:id="rId573" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-secretsmanager-rotationschedule.html" xr:uid="{F309843F-55F9-4AEA-9292-D96531722DC3}"/>
+    <hyperlink ref="B645" r:id="rId574" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-secretsmanager-secret.html" xr:uid="{2CCC035F-EFF2-42AE-A797-73D531DA13E1}"/>
+    <hyperlink ref="B646" r:id="rId575" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-secretsmanager-secrettargetattachment.html" xr:uid="{239118CE-E4F5-4C89-8FA1-17811EB59623}"/>
+    <hyperlink ref="B648" r:id="rId576" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalog-acceptedportfolioshare.html" xr:uid="{E4F423B3-DA17-4D0F-8434-FA3255E04C56}"/>
+    <hyperlink ref="B649" r:id="rId577" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalog-cloudformationproduct.html" xr:uid="{6DFDEA84-E27A-4187-8612-93215094D719}"/>
+    <hyperlink ref="B650" r:id="rId578" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalog-cloudformationprovisionedproduct.html" xr:uid="{1E1E14B8-F09A-4D0D-8D0A-B11FF50FB2C8}"/>
+    <hyperlink ref="B651" r:id="rId579" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalog-launchnotificationconstraint.html" xr:uid="{658EBC11-55B5-4082-B8D5-CD757BBBB2A2}"/>
+    <hyperlink ref="B652" r:id="rId580" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalog-launchroleconstraint.html" xr:uid="{A97C0DBE-82DD-4715-AA8D-7E733479EBDB}"/>
+    <hyperlink ref="B653" r:id="rId581" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalog-launchtemplateconstraint.html" xr:uid="{55901035-1B1B-4C38-8C5D-1F3AF0517D7B}"/>
+    <hyperlink ref="B654" r:id="rId582" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalog-portfolio.html" xr:uid="{30732076-2EE8-426E-8359-D5066762662E}"/>
+    <hyperlink ref="B655" r:id="rId583" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalog-portfolioprincipalassociation.html" xr:uid="{10F7D4EF-7CB9-41F6-9C5A-36300ED450F3}"/>
+    <hyperlink ref="B656" r:id="rId584" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalog-portfolioproductassociation.html" xr:uid="{90CE8C0A-C41E-4EC3-A9A8-AB53EFBD333A}"/>
+    <hyperlink ref="B657" r:id="rId585" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalog-portfolioshare.html" xr:uid="{F67E318F-3C99-486B-942F-95C651BE6312}"/>
+    <hyperlink ref="B658" r:id="rId586" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalog-resourceupdateconstraint.html" xr:uid="{21996DCB-384F-4EB5-814B-68A08BDBE295}"/>
+    <hyperlink ref="B659" r:id="rId587" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalog-serviceaction.html" xr:uid="{BBDE0E8C-0919-41F7-9487-FBD28772BE02}"/>
+    <hyperlink ref="B660" r:id="rId588" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalog-serviceactionassociation.html" xr:uid="{0E5FB258-DCA9-42C8-953E-84D35899798D}"/>
+    <hyperlink ref="B661" r:id="rId589" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalog-stacksetconstraint.html" xr:uid="{0B1C2862-6F34-434E-B3A0-7537145CDC38}"/>
+    <hyperlink ref="B662" r:id="rId590" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalog-tagoption.html" xr:uid="{9992D73C-508E-4250-990B-AA7F962FCB76}"/>
+    <hyperlink ref="B663" r:id="rId591" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalog-tagoptionassociation.html" xr:uid="{02B1BED1-E386-48B2-9C97-A0BEE2BA9E78}"/>
+    <hyperlink ref="B665" r:id="rId592" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalogappregistry-application.html" xr:uid="{542732FF-74A0-4603-ABA5-7A3FAC74F78A}"/>
+    <hyperlink ref="B666" r:id="rId593" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalogappregistry-attributegroup.html" xr:uid="{F135E685-A2ED-4C4B-9259-1C43D1BF995D}"/>
+    <hyperlink ref="B667" r:id="rId594" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalogappregistry-attributegroupassociation.html" xr:uid="{7092D489-7199-4AA4-9564-AA72934097F4}"/>
+    <hyperlink ref="B668" r:id="rId595" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-servicecatalogappregistry-resourceassociation.html" xr:uid="{E4C6882F-8E3A-4B78-AF62-429B97A7A6E3}"/>
+    <hyperlink ref="B670" r:id="rId596" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-securityhub-automationrule.html" xr:uid="{E5A79FF8-E10F-402B-9B8B-526A40AE577A}"/>
+    <hyperlink ref="B671" r:id="rId597" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-securityhub-hub.html" xr:uid="{B4E63C69-F332-4717-997D-90E1DE16DBE3}"/>
+    <hyperlink ref="B672" r:id="rId598" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-securityhub-standard.html" xr:uid="{0E44F8BE-C972-4362-BFC7-15F7B2F3D0AF}"/>
+    <hyperlink ref="B674" r:id="rId599" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ses-configurationset.html" xr:uid="{37C3D604-ED9C-4F6E-8692-C01914CB657A}"/>
+    <hyperlink ref="B675" r:id="rId600" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ses-configurationseteventdestination.html" xr:uid="{600B1848-BA78-4F95-9E67-9CD00D05E1DF}"/>
+    <hyperlink ref="B676" r:id="rId601" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ses-contactlist.html" xr:uid="{4BF08FC8-C48A-4020-8B49-48B582EDCDBF}"/>
+    <hyperlink ref="B677" r:id="rId602" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ses-dedicatedippool.html" xr:uid="{3A2362ED-5F75-4B13-AAA7-D694FF83644E}"/>
+    <hyperlink ref="B678" r:id="rId603" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ses-emailidentity.html" xr:uid="{570B29C6-ADCB-48F0-9FD9-2018D935872C}"/>
+    <hyperlink ref="B679" r:id="rId604" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ses-receiptfilter.html" xr:uid="{E82A59EA-1BFA-49EA-B707-35D7C211CDEA}"/>
+    <hyperlink ref="B680" r:id="rId605" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ses-receiptrule.html" xr:uid="{4299D741-C2DE-47C6-872F-A644BFF02BBD}"/>
+    <hyperlink ref="B681" r:id="rId606" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ses-receiptruleset.html" xr:uid="{19704BE4-383F-483C-A4DB-C60EE9881F32}"/>
+    <hyperlink ref="B682" r:id="rId607" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ses-template.html" xr:uid="{609D95B1-7011-4DF8-AA4C-7FACA70CAAC6}"/>
+    <hyperlink ref="B683" r:id="rId608" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ses-vdmattributes.html" xr:uid="{4A0A1AB0-0145-44E7-8D25-B41B774C89A7}"/>
+    <hyperlink ref="B685" r:id="rId609" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-sdb-domain.html" xr:uid="{8C50B40C-BD61-473D-AF8D-0D5B27F8B36D}"/>
+    <hyperlink ref="B687" r:id="rId610" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-stepfunctions-activity.html" xr:uid="{533444D7-D8AA-4F4C-BDBD-96328DC05EDE}"/>
+    <hyperlink ref="B688" r:id="rId611" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-stepfunctions-statemachine.html" xr:uid="{6CDF375F-1BEE-44E4-ADC1-AAEE715AC4DA}"/>
+    <hyperlink ref="B689" r:id="rId612" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-stepfunctions-statemachinealias.html" xr:uid="{FF3B41A3-FD77-4256-A6E5-BB807D7643E3}"/>
+    <hyperlink ref="B690" r:id="rId613" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-stepfunctions-statemachineversion.html" xr:uid="{763CCB63-43FB-4BEF-AD5A-7FB222F8552F}"/>
+    <hyperlink ref="B692" r:id="rId614" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ssm-association.html" xr:uid="{2DC3D66A-370F-44EE-9B6D-1AAF3937AA89}"/>
+    <hyperlink ref="B693" r:id="rId615" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ssm-document.html" xr:uid="{3A3F8C38-485D-4C04-9D79-AEC41BB44A44}"/>
+    <hyperlink ref="B694" r:id="rId616" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ssm-maintenancewindow.html" xr:uid="{7A30E088-A7A5-4E4F-A5E5-3FE59F819D65}"/>
+    <hyperlink ref="B695" r:id="rId617" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ssm-maintenancewindowtarget.html" xr:uid="{364A7E84-3491-494C-AB66-03E5F81B61A4}"/>
+    <hyperlink ref="B696" r:id="rId618" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ssm-maintenancewindowtask.html" xr:uid="{4D09F9CF-CC18-40C2-A3ED-1FD9C2D53929}"/>
+    <hyperlink ref="B697" r:id="rId619" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ssm-parameter.html" xr:uid="{4FB1A4A9-39A6-46E6-840C-70E482C5F7C1}"/>
+    <hyperlink ref="B698" r:id="rId620" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ssm-patchbaseline.html" xr:uid="{347E9030-F069-4E51-B285-06E1E8EE1C15}"/>
+    <hyperlink ref="B699" r:id="rId621" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ssm-resourcedatasync.html" xr:uid="{E042A80B-D46D-45B5-AEEC-B0DD04AA0072}"/>
+    <hyperlink ref="B700" r:id="rId622" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-ssm-resourcepolicy.html" xr:uid="{8FF8E62D-B55E-40A5-AA36-E4C9ABC14D36}"/>
+    <hyperlink ref="B702" r:id="rId623" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-supportapp-accountalias.html" xr:uid="{CCFA0C63-A107-457A-BE59-F54E78F0E751}"/>
+    <hyperlink ref="B703" r:id="rId624" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-supportapp-slackchannelconfiguration.html" xr:uid="{A7B12C9C-1336-4C54-9C9E-0439CB508AA8}"/>
+    <hyperlink ref="B704" r:id="rId625" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-supportapp-slackworkspaceconfiguration.html" xr:uid="{3AD9B3D0-7F0A-4863-AEBB-6DEF10510A0F}"/>
+    <hyperlink ref="B706" r:id="rId626" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-systemsmanagersap-application.html" xr:uid="{3B980926-C04D-45B9-9841-DB4A119CBCCE}"/>
+    <hyperlink ref="B708" r:id="rId627" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-timestream-database.html" xr:uid="{80479906-4EF8-4936-987E-1F5FB7140B17}"/>
+    <hyperlink ref="B709" r:id="rId628" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-timestream-scheduledquery.html" xr:uid="{84EE2CB8-06F1-4FCE-BA96-BA0B3C38C06B}"/>
+    <hyperlink ref="B710" r:id="rId629" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-timestream-table.html" xr:uid="{9E881F59-6D98-40CD-83F3-0E1DBBD976F6}"/>
+    <hyperlink ref="B712" r:id="rId630" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-transfer-agreement.html" xr:uid="{2B245D8C-2972-4C37-97B4-BEB1A1549477}"/>
+    <hyperlink ref="B713" r:id="rId631" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-transfer-certificate.html" xr:uid="{A85B6E1D-1413-47BB-A678-C12027E40D53}"/>
+    <hyperlink ref="B714" r:id="rId632" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-transfer-connector.html" xr:uid="{97029663-785B-41C5-899F-CAB956C53D5B}"/>
+    <hyperlink ref="B715" r:id="rId633" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-transfer-profile.html" xr:uid="{A040A79D-E840-4A78-9B1C-4EAFDDAA53AD}"/>
+    <hyperlink ref="B716" r:id="rId634" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-transfer-server.html" xr:uid="{18B43B78-7A30-42A7-A26B-51B9FCA01CD1}"/>
+    <hyperlink ref="B717" r:id="rId635" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-transfer-user.html" xr:uid="{59A169F6-09B4-4329-817E-D4E617CC05BD}"/>
+    <hyperlink ref="B718" r:id="rId636" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-transfer-workflow.html" xr:uid="{77217046-9E98-4EB6-A2C2-4E3494238346}"/>
+    <hyperlink ref="B720" r:id="rId637" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-verifiedpermissions-identitysource.html" xr:uid="{474564AC-2E41-479C-97EA-024977830E21}"/>
+    <hyperlink ref="B721" r:id="rId638" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-verifiedpermissions-policy.html" xr:uid="{E0DEDDC0-29AC-4189-A01C-5E1F0DD56653}"/>
+    <hyperlink ref="B722" r:id="rId639" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-verifiedpermissions-policystore.html" xr:uid="{2D2D1504-A2CE-4179-8307-AD50E6C991C1}"/>
+    <hyperlink ref="B723" r:id="rId640" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-verifiedpermissions-policytemplate.html" xr:uid="{88A6271F-EA24-4AF8-9C6A-BC4A11467851}"/>
+    <hyperlink ref="B725" r:id="rId641" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-voiceid-domain.html" xr:uid="{F4C92B20-6A9B-45C3-A70C-8DB0EEC612E4}"/>
+    <hyperlink ref="B727" r:id="rId642" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-vpclattice-accesslogsubscription.html" xr:uid="{146DAFC1-8952-43D3-9F7D-C6251F4CD44A}"/>
+    <hyperlink ref="B728" r:id="rId643" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-vpclattice-authpolicy.html" xr:uid="{6496ECF4-4519-421E-874A-7234E2109718}"/>
+    <hyperlink ref="B729" r:id="rId644" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-vpclattice-listener.html" xr:uid="{6E744D6A-7905-4145-9E30-58376D662B87}"/>
+    <hyperlink ref="B730" r:id="rId645" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-vpclattice-resourcepolicy.html" xr:uid="{389756C2-DA60-469F-8551-A49A446EEE49}"/>
+    <hyperlink ref="B731" r:id="rId646" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-vpclattice-rule.html" xr:uid="{1948C339-B1F5-46D7-A802-BD563135F36E}"/>
+    <hyperlink ref="B732" r:id="rId647" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-vpclattice-service.html" xr:uid="{0EE02629-AAC1-4219-942E-E15D7A2177CB}"/>
+    <hyperlink ref="B733" r:id="rId648" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-vpclattice-servicenetwork.html" xr:uid="{5ADF2C0F-C370-4C5F-824D-E41E25D89B70}"/>
+    <hyperlink ref="B734" r:id="rId649" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-vpclattice-servicenetworkserviceassociation.html" xr:uid="{312336C2-3552-4D98-AAC4-AD671E678153}"/>
+    <hyperlink ref="B735" r:id="rId650" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-vpclattice-servicenetworkvpcassociation.html" xr:uid="{903C0294-3C2F-4B05-90B6-69B7ED55E6D1}"/>
+    <hyperlink ref="B736" r:id="rId651" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-vpclattice-targetgroup.html" xr:uid="{20592A10-393E-41AC-98C2-E684A029F7A3}"/>
+    <hyperlink ref="B738" r:id="rId652" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-waf-bytematchset.html" xr:uid="{2C9DF6A1-FFED-4625-B7FD-A8498782136F}"/>
+    <hyperlink ref="B739" r:id="rId653" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-waf-ipset.html" xr:uid="{7B9511AC-B27F-488A-9645-5F377305C809}"/>
+    <hyperlink ref="B740" r:id="rId654" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-waf-rule.html" xr:uid="{B9F06DD4-60C0-4F47-AE14-18990B6185E8}"/>
+    <hyperlink ref="B741" r:id="rId655" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-waf-sizeconstraintset.html" xr:uid="{98B55801-ACA8-4B5B-93E6-192B41426887}"/>
+    <hyperlink ref="B742" r:id="rId656" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-waf-sqlinjectionmatchset.html" xr:uid="{CEFE0A10-17BB-44E4-B575-786610B5E10A}"/>
+    <hyperlink ref="B743" r:id="rId657" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-waf-webacl.html" xr:uid="{C03FFF99-55EB-4F35-A11A-DD9FDF5203FF}"/>
+    <hyperlink ref="B744" r:id="rId658" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-waf-xssmatchset.html" xr:uid="{3F52FB36-11F0-40EC-B46F-A0E4442911CB}"/>
+    <hyperlink ref="B745" r:id="rId659" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafregional-bytematchset.html" xr:uid="{5F42D93F-181A-4D88-8B68-B2815D3A1786}"/>
+    <hyperlink ref="B746" r:id="rId660" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafregional-geomatchset.html" xr:uid="{50644F35-B1B9-4B36-A40B-A3FB1C7F6E4B}"/>
+    <hyperlink ref="B747" r:id="rId661" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafregional-ipset.html" xr:uid="{D70DE8D0-C3C1-427A-8769-8370069A16E3}"/>
+    <hyperlink ref="B748" r:id="rId662" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafregional-ratebasedrule.html" xr:uid="{790955F4-66C7-455C-BBC9-AB4426C2FFAE}"/>
+    <hyperlink ref="B749" r:id="rId663" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafregional-regexpatternset.html" xr:uid="{1401B353-D118-4E2D-8D55-D90AEDCB4D4A}"/>
+    <hyperlink ref="B750" r:id="rId664" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafregional-rule.html" xr:uid="{68B4EC23-0361-47F6-AE17-B725E41EE3D5}"/>
+    <hyperlink ref="B751" r:id="rId665" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafregional-sizeconstraintset.html" xr:uid="{3A694C5F-59FF-4A26-9767-1223EA7ECF84}"/>
+    <hyperlink ref="B752" r:id="rId666" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafregional-sqlinjectionmatchset.html" xr:uid="{AC6A71E8-4016-4A03-A5D8-AC2FEE50941E}"/>
+    <hyperlink ref="B753" r:id="rId667" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafregional-webacl.html" xr:uid="{914E2427-E665-4AC6-BAF6-ED8358EBF069}"/>
+    <hyperlink ref="B754" r:id="rId668" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafregional-webaclassociation.html" xr:uid="{F1971169-E6C1-4DC1-9FC4-632D99A76AA8}"/>
+    <hyperlink ref="B755" r:id="rId669" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafregional-xssmatchset.html" xr:uid="{0F3FC1B8-B110-461B-BB4B-C75A2D4F3470}"/>
+    <hyperlink ref="B757" r:id="rId670" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafv2-ipset.html" xr:uid="{6B4390DB-55CD-48F7-8EDD-D94895045C7D}"/>
+    <hyperlink ref="B758" r:id="rId671" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafv2-loggingconfiguration.html" xr:uid="{37FD5329-C70B-4E09-BC1E-CF5AEC952E9A}"/>
+    <hyperlink ref="B759" r:id="rId672" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafv2-regexpatternset.html" xr:uid="{190B9DD7-A79E-4300-B4AB-8B3AF4C1D403}"/>
+    <hyperlink ref="B760" r:id="rId673" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafv2-rulegroup.html" xr:uid="{83894246-FC0E-48BC-AC34-15866A6CAA13}"/>
+    <hyperlink ref="B761" r:id="rId674" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafv2-webacl.html" xr:uid="{65491CE5-C2A6-4FAA-8716-023C630A21F8}"/>
+    <hyperlink ref="B762" r:id="rId675" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wafv2-webaclassociation.html" xr:uid="{C483EA62-4CE0-48A5-B8E6-55A981C47396}"/>
+    <hyperlink ref="B764" r:id="rId676" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wisdom-assistant.html" xr:uid="{07583E35-5AC7-490F-8815-F7A34B3049DD}"/>
+    <hyperlink ref="B765" r:id="rId677" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wisdom-assistantassociation.html" xr:uid="{CC54EB40-B4BA-482A-B896-74591BC65227}"/>
+    <hyperlink ref="B766" r:id="rId678" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-wisdom-knowledgebase.html" xr:uid="{3741A322-FC4B-47C7-872A-F9C0BF15E3D6}"/>
+    <hyperlink ref="B768" r:id="rId679" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-workspaces-connectionalias.html" xr:uid="{87A6E93F-BB5F-4E83-8504-6EDE73155750}"/>
+    <hyperlink ref="B769" r:id="rId680" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-workspaces-workspace.html" xr:uid="{BD820E4B-9927-44E3-82D5-CDB2A9C77FCB}"/>
+    <hyperlink ref="B771" r:id="rId681" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-workspacesweb-browsersettings.html" xr:uid="{E145DC1B-1B06-4530-91AD-FEEB7D87A6D8}"/>
+    <hyperlink ref="B772" r:id="rId682" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-workspacesweb-identityprovider.html" xr:uid="{EC3CC467-3CA2-43EF-8ADA-1A7891CB43F8}"/>
+    <hyperlink ref="B773" r:id="rId683" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-workspacesweb-ipaccesssettings.html" xr:uid="{91F04CE7-BE41-4661-BF66-ED64CC1A9740}"/>
+    <hyperlink ref="B774" r:id="rId684" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-workspacesweb-networksettings.html" xr:uid="{1ED61782-FEEA-4A6A-8FA7-A98CF64D5640}"/>
+    <hyperlink ref="B775" r:id="rId685" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-workspacesweb-portal.html" xr:uid="{30F21009-5DF4-4546-B4FA-B072D6208A36}"/>
+    <hyperlink ref="B776" r:id="rId686" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-workspacesweb-truststore.html" xr:uid="{001D99D7-78D7-4A8E-9EAA-5B489F3913D0}"/>
+    <hyperlink ref="B777" r:id="rId687" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-workspacesweb-useraccessloggingsettings.html" xr:uid="{67D46797-6FF9-40B5-8EE2-15BFBF64DEA1}"/>
+    <hyperlink ref="B778" r:id="rId688" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-workspacesweb-usersettings.html" xr:uid="{2F1B0AB4-09F7-4393-B912-625942FF9815}"/>
+    <hyperlink ref="B780" r:id="rId689" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-xray-group.html" xr:uid="{25367334-2464-4C03-A88B-62F646F56F1E}"/>
+    <hyperlink ref="B781" r:id="rId690" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-xray-resourcepolicy.html" xr:uid="{2D427419-3BA8-4645-8C31-8F9F978A3287}"/>
+    <hyperlink ref="B782" r:id="rId691" display="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-resource-xray-samplingrule.html" xr:uid="{90B33D66-7657-4696-BC58-01192FFCCC66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBC506B-DD52-4574-9FD5-C87E94F69E8A}">
+  <dimension ref="B2:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="60.75" customWidth="1"/>
+    <col min="4" max="5" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="43.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="C3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="C7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="C9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="C12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="C14" t="s">
+        <v>657</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="C16" t="s">
+        <v>660</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" t="s">
+        <v>661</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" t="s">
+        <v>664</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" t="s">
+        <v>665</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" t="s">
+        <v>666</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" t="s">
+        <v>667</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" t="s">
+        <v>668</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" t="s">
+        <v>669</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" t="s">
+        <v>670</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" t="s">
+        <v>671</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" t="s">
+        <v>672</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" t="s">
+        <v>658</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" t="s">
+        <v>659</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" t="s">
+        <v>662</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" t="s">
+        <v>663</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>